--- a/Raw data/Jan_2019.xlsx
+++ b/Raw data/Jan_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F1738-7D6E-EF40-9ED6-10DC4D65D5C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB4F0B-DA64-3A48-9BB1-69D2C5828EFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{0C37DF05-7FDA-B342-9691-799E7F642A94}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16260" xr2:uid="{0C37DF05-7FDA-B342-9691-799E7F642A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD54" authorId="1" shapeId="0" xr:uid="{13ED433C-EBFB-6D42-8C81-4423021298E0}">
+    <comment ref="BD57" authorId="1" shapeId="0" xr:uid="{13ED433C-EBFB-6D42-8C81-4423021298E0}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD55" authorId="1" shapeId="0" xr:uid="{6D120D75-C4C0-1542-8643-1618D1AF8AA6}">
+    <comment ref="BD58" authorId="1" shapeId="0" xr:uid="{6D120D75-C4C0-1542-8643-1618D1AF8AA6}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -796,6 +796,21 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>AM2</t>
+  </si>
+  <si>
+    <t>AM3</t>
+  </si>
+  <si>
+    <t>Dec. 7, 2016</t>
+  </si>
+  <si>
+    <t>#######</t>
   </si>
 </sst>
 </file>
@@ -847,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,6 +911,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -909,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1207,6 +1228,48 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,11 +1584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EEF925-A145-1E4C-BE46-D057DDAEEF7F}">
-  <dimension ref="A1:GQ67"/>
+  <dimension ref="A1:GQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV64" sqref="AV64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6860,7 +6923,7 @@
         <v>40</v>
       </c>
       <c r="Y27" s="24">
-        <f t="shared" ref="Y27:Y60" si="9">Z27/20</f>
+        <f t="shared" ref="Y27:Y63" si="9">Z27/20</f>
         <v>0.7</v>
       </c>
       <c r="Z27" s="28">
@@ -6870,18 +6933,18 @@
         <v>14</v>
       </c>
       <c r="AB27" s="24">
-        <f t="shared" ref="AB27:AB60" si="10">AA27/40</f>
+        <f t="shared" ref="AB27:AB63" si="10">AA27/40</f>
         <v>0.35</v>
       </c>
       <c r="AC27" s="24">
-        <f t="shared" ref="AC27:AC60" si="11">1-AB27</f>
+        <f t="shared" ref="AC27:AC63" si="11">1-AB27</f>
         <v>0.65</v>
       </c>
       <c r="AD27" s="28">
         <v>0</v>
       </c>
       <c r="AE27" s="24">
-        <f t="shared" ref="AE27:AE60" si="12">1-Y27</f>
+        <f t="shared" ref="AE27:AE63" si="12">1-Y27</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF27" s="28">
@@ -6947,7 +7010,7 @@
         <v>26</v>
       </c>
       <c r="BA27" s="30">
-        <f t="shared" ref="BA27:BA46" si="13">SUM(AT27,AW27,AX27,AY27,AZ27)</f>
+        <f t="shared" ref="BA27:BA49" si="13">SUM(AT27,AW27,AX27,AY27,AZ27)</f>
         <v>140</v>
       </c>
       <c r="BB27" s="28" t="s">
@@ -6984,7 +7047,9 @@
       <c r="BM27" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="BN27" s="28"/>
+      <c r="BN27" s="28">
+        <v>24</v>
+      </c>
       <c r="BO27" s="23"/>
       <c r="BP27" s="23"/>
       <c r="BQ27" s="23"/>
@@ -7192,7 +7257,9 @@
       <c r="BM28" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="BN28" s="37"/>
+      <c r="BN28" s="37">
+        <v>1</v>
+      </c>
       <c r="BO28" s="39"/>
       <c r="BP28" s="23"/>
       <c r="BQ28" s="23"/>
@@ -8040,7 +8107,9 @@
       <c r="BM32" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="BN32" s="28"/>
+      <c r="BN32" s="28">
+        <v>90</v>
+      </c>
       <c r="BO32" s="23"/>
       <c r="BP32" s="23"/>
       <c r="BQ32" s="23"/>
@@ -9770,7 +9839,7 @@
         <v>2.5</v>
       </c>
       <c r="AV40" s="29">
-        <f t="shared" ref="AV40:AV42" si="14">((AT40+AW40)-(AQ40+AP40))/(AQ40+AP40) *100</f>
+        <f t="shared" ref="AV40:AV45" si="14">((AT40+AW40)-(AQ40+AP40))/(AQ40+AP40) *100</f>
         <v>-14.102564102564102</v>
       </c>
       <c r="AW40" s="28">
@@ -10640,614 +10709,621 @@
       <c r="GP42" s="32"/>
       <c r="GQ42" s="32"/>
     </row>
-    <row r="43" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="95">
-        <v>43062</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="100">
-        <v>0.6875</v>
-      </c>
-      <c r="E43" s="43" t="s">
+    <row r="43" spans="1:199" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="111" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="113">
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="M43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="N43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q43" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="R43" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S43" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="T43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U43" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="V43" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="W43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="X43" s="45">
-        <v>54</v>
-      </c>
-      <c r="Y43" s="45">
+      <c r="F43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="R43" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="S43" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="T43" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="U43" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="W43" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="X43" s="120">
+        <v>57</v>
+      </c>
+      <c r="Y43" s="114">
         <f t="shared" si="9"/>
-        <v>0.85</v>
-      </c>
-      <c r="Z43" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="Z43" s="120">
+        <v>18</v>
+      </c>
+      <c r="AA43" s="120">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="114">
+        <f t="shared" si="10"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC43" s="114">
+        <f t="shared" si="11"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD43" s="120">
         <v>17</v>
       </c>
-      <c r="AA43" s="45">
+      <c r="AE43" s="114">
+        <f t="shared" si="12"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AF43" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="120">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="120">
+        <v>25</v>
+      </c>
+      <c r="AI43" s="120">
+        <v>47</v>
+      </c>
+      <c r="AJ43" s="120">
+        <v>41</v>
+      </c>
+      <c r="AK43" s="120">
+        <v>56</v>
+      </c>
+      <c r="AL43" s="120">
+        <v>67</v>
+      </c>
+      <c r="AM43" s="120">
+        <v>73</v>
+      </c>
+      <c r="AN43" s="120">
+        <v>53</v>
+      </c>
+      <c r="AO43" s="120">
+        <v>71</v>
+      </c>
+      <c r="AP43" s="120">
+        <v>40</v>
+      </c>
+      <c r="AQ43" s="120">
+        <v>71</v>
+      </c>
+      <c r="AR43" s="120">
+        <v>6</v>
+      </c>
+      <c r="AS43" s="15"/>
+      <c r="AT43" s="120">
+        <v>62</v>
+      </c>
+      <c r="AU43" s="120">
+        <v>5</v>
+      </c>
+      <c r="AV43" s="121">
+        <f t="shared" si="14"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AW43" s="120">
+        <v>86</v>
+      </c>
+      <c r="AX43" s="120">
+        <v>98</v>
+      </c>
+      <c r="AY43" s="120">
+        <v>85</v>
+      </c>
+      <c r="AZ43" s="120">
+        <v>89</v>
+      </c>
+      <c r="BA43" s="122">
+        <f t="shared" si="13"/>
+        <v>420</v>
+      </c>
+      <c r="BB43" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC43" s="118">
+        <v>11</v>
+      </c>
+      <c r="BD43" s="118">
+        <v>9</v>
+      </c>
+      <c r="BE43" s="118">
+        <v>23</v>
+      </c>
+      <c r="BF43" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG43" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH43" s="123">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="123">
+        <v>0.375</v>
+      </c>
+      <c r="BJ43" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK43" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL43" s="124"/>
+      <c r="BM43" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN43" s="120"/>
+      <c r="BO43" s="125"/>
+    </row>
+    <row r="44" spans="1:199" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="113">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="R44" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="S44" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="T44" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="U44" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="V44" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="W44" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="X44" s="120">
+        <v>57</v>
+      </c>
+      <c r="Y44" s="114">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Z44" s="120">
+        <v>20</v>
+      </c>
+      <c r="AA44" s="120">
         <v>3</v>
       </c>
-      <c r="AB43" s="45">
+      <c r="AB44" s="114">
         <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC43" s="45">
+      <c r="AC44" s="114">
         <f t="shared" si="11"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="AD43" s="45">
-        <v>14</v>
-      </c>
-      <c r="AE43" s="45">
+      <c r="AD44" s="120">
+        <v>17</v>
+      </c>
+      <c r="AE44" s="114">
         <f t="shared" si="12"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="AF43" s="45">
-        <v>1</v>
-      </c>
-      <c r="AG43" s="45">
-        <v>2</v>
-      </c>
-      <c r="AH43" s="45">
-        <v>20</v>
-      </c>
-      <c r="AI43" s="45">
-        <v>20</v>
-      </c>
-      <c r="AJ43" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="120">
+        <v>3</v>
+      </c>
+      <c r="AH44" s="120">
+        <v>31</v>
+      </c>
+      <c r="AI44" s="120">
+        <v>32</v>
+      </c>
+      <c r="AJ44" s="120">
+        <v>32</v>
+      </c>
+      <c r="AK44" s="120">
+        <v>36</v>
+      </c>
+      <c r="AL44" s="120">
+        <v>36</v>
+      </c>
+      <c r="AM44" s="120">
+        <v>40</v>
+      </c>
+      <c r="AN44" s="120">
+        <v>41</v>
+      </c>
+      <c r="AO44" s="120">
+        <v>43</v>
+      </c>
+      <c r="AP44" s="120">
+        <v>48</v>
+      </c>
+      <c r="AQ44" s="120">
+        <v>46</v>
+      </c>
+      <c r="AR44" s="120">
+        <v>3.5</v>
+      </c>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="120">
+        <v>45</v>
+      </c>
+      <c r="AU44" s="120">
+        <v>3</v>
+      </c>
+      <c r="AV44" s="121">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW44" s="120">
+        <v>49</v>
+      </c>
+      <c r="AX44" s="120">
+        <v>54</v>
+      </c>
+      <c r="AY44" s="120">
+        <v>46</v>
+      </c>
+      <c r="AZ44" s="120">
+        <v>41</v>
+      </c>
+      <c r="BA44" s="122">
+        <f t="shared" si="13"/>
+        <v>235</v>
+      </c>
+      <c r="BB44" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC44" s="118">
+        <v>4</v>
+      </c>
+      <c r="BD44" s="118">
+        <v>13</v>
+      </c>
+      <c r="BE44" s="118">
+        <v>27</v>
+      </c>
+      <c r="BF44" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG44" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH44" s="123">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="BI44" s="123">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ44" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK44" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL44" s="124"/>
+      <c r="BM44" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN44" s="120"/>
+      <c r="BO44" s="125"/>
+    </row>
+    <row r="45" spans="1:199" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="113">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E45" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="N45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="R45" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="S45" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="U45" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="V45" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="W45" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="X45" s="120">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="114">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z45" s="120">
+        <v>15</v>
+      </c>
+      <c r="AA45" s="120">
+        <v>15</v>
+      </c>
+      <c r="AB45" s="114">
+        <f t="shared" si="10"/>
+        <v>0.375</v>
+      </c>
+      <c r="AC45" s="114">
+        <f t="shared" si="11"/>
+        <v>0.625</v>
+      </c>
+      <c r="AD45" s="120">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="114">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF45" s="120">
+        <v>6</v>
+      </c>
+      <c r="AG45" s="120">
+        <v>9</v>
+      </c>
+      <c r="AH45" s="120">
+        <v>74</v>
+      </c>
+      <c r="AI45" s="120">
+        <v>123</v>
+      </c>
+      <c r="AJ45" s="120">
+        <v>107</v>
+      </c>
+      <c r="AK45" s="120">
+        <v>146</v>
+      </c>
+      <c r="AL45" s="120">
+        <v>166</v>
+      </c>
+      <c r="AM45" s="120">
+        <v>227</v>
+      </c>
+      <c r="AN45" s="120">
+        <v>169</v>
+      </c>
+      <c r="AO45" s="120">
+        <v>192</v>
+      </c>
+      <c r="AP45" s="120">
+        <v>231</v>
+      </c>
+      <c r="AQ45" s="120">
+        <v>269</v>
+      </c>
+      <c r="AR45" s="120">
+        <v>25.5</v>
+      </c>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="120">
+        <v>160</v>
+      </c>
+      <c r="AU45" s="120">
+        <v>12</v>
+      </c>
+      <c r="AV45" s="121">
+        <f t="shared" si="14"/>
+        <v>-17.2</v>
+      </c>
+      <c r="AW45" s="120">
+        <v>254</v>
+      </c>
+      <c r="AX45" s="120">
+        <v>286</v>
+      </c>
+      <c r="AY45" s="120">
+        <v>244</v>
+      </c>
+      <c r="AZ45" s="120">
+        <v>193</v>
+      </c>
+      <c r="BA45" s="122">
+        <f t="shared" si="13"/>
+        <v>1137</v>
+      </c>
+      <c r="BB45" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC45" s="118">
+        <v>7</v>
+      </c>
+      <c r="BD45" s="118">
+        <v>8</v>
+      </c>
+      <c r="BE45" s="118">
         <v>26</v>
       </c>
-      <c r="AK43" s="45">
-        <v>32</v>
-      </c>
-      <c r="AL43" s="45">
-        <v>35</v>
-      </c>
-      <c r="AM43" s="45">
-        <v>31</v>
-      </c>
-      <c r="AN43" s="45">
-        <v>38</v>
-      </c>
-      <c r="AO43" s="45">
-        <v>24</v>
-      </c>
-      <c r="AP43" s="45">
-        <v>34</v>
-      </c>
-      <c r="AQ43" s="45">
-        <v>42</v>
-      </c>
-      <c r="AR43" s="45">
-        <v>4</v>
-      </c>
-      <c r="AS43" s="15"/>
-      <c r="AT43" s="45">
-        <v>43</v>
-      </c>
-      <c r="AU43" s="45">
-        <v>4</v>
-      </c>
-      <c r="AV43" s="48">
-        <f t="shared" ref="AV43:AV60" si="15">((AT43+AW43)-(AQ43+AP43))/(AQ43+AP43) *100</f>
-        <v>14.473684210526317</v>
-      </c>
-      <c r="AW43" s="45">
-        <v>44</v>
-      </c>
-      <c r="AX43" s="45">
-        <v>34</v>
-      </c>
-      <c r="AY43" s="45">
-        <v>34</v>
-      </c>
-      <c r="AZ43" s="45">
-        <v>42</v>
-      </c>
-      <c r="BA43" s="49">
-        <f t="shared" si="13"/>
+      <c r="BF45" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG45" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH45" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="BB43" s="45">
-        <v>34</v>
-      </c>
-      <c r="BC43" s="49">
-        <v>2</v>
-      </c>
-      <c r="BD43" s="49">
-        <v>1</v>
-      </c>
-      <c r="BE43" s="49">
-        <v>30</v>
-      </c>
-      <c r="BF43" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG43" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH43" s="50">
-        <v>0</v>
-      </c>
-      <c r="BI43" s="50">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="BJ43" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK43" s="45"/>
-      <c r="BL43" s="63"/>
-      <c r="BM43" s="45" t="s">
+      <c r="BI45" s="123">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="BJ45" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK45" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL45" s="124"/>
+      <c r="BM45" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="BN43" s="45"/>
-    </row>
-    <row r="44" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="95">
-        <v>43080</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="100">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="N44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="O44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q44" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="R44" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S44" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="T44" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U44" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="V44" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="W44" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="X44" s="45">
-        <v>48</v>
-      </c>
-      <c r="Y44" s="45">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="Z44" s="45">
-        <v>13</v>
-      </c>
-      <c r="AA44" s="45">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="45">
-        <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="AC44" s="45">
-        <f t="shared" si="11"/>
-        <v>0.875</v>
-      </c>
-      <c r="AD44" s="45">
-        <v>8</v>
-      </c>
-      <c r="AE44" s="45">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="AF44" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="45">
-        <v>5</v>
-      </c>
-      <c r="AH44" s="45">
-        <v>25</v>
-      </c>
-      <c r="AI44" s="45">
-        <v>64</v>
-      </c>
-      <c r="AJ44" s="45">
-        <v>81</v>
-      </c>
-      <c r="AK44" s="45">
-        <v>110</v>
-      </c>
-      <c r="AL44" s="45">
-        <v>75</v>
-      </c>
-      <c r="AM44" s="45">
-        <v>127</v>
-      </c>
-      <c r="AN44" s="45">
-        <v>103</v>
-      </c>
-      <c r="AO44" s="45">
-        <v>97</v>
-      </c>
-      <c r="AP44" s="45">
-        <v>125</v>
-      </c>
-      <c r="AQ44" s="45">
-        <v>96</v>
-      </c>
-      <c r="AR44" s="45">
-        <v>6</v>
-      </c>
-      <c r="AS44" s="15"/>
-      <c r="AT44" s="45">
-        <v>121</v>
-      </c>
-      <c r="AU44" s="45">
-        <v>11</v>
-      </c>
-      <c r="AV44" s="48">
-        <f t="shared" si="15"/>
-        <v>23.981900452488688</v>
-      </c>
-      <c r="AW44" s="45">
-        <v>153</v>
-      </c>
-      <c r="AX44" s="45">
-        <v>209</v>
-      </c>
-      <c r="AY44" s="45">
-        <v>115</v>
-      </c>
-      <c r="AZ44" s="45">
-        <v>172</v>
-      </c>
-      <c r="BA44" s="49">
-        <f t="shared" si="13"/>
-        <v>770</v>
-      </c>
-      <c r="BB44" s="45">
-        <v>42</v>
-      </c>
-      <c r="BC44" s="49">
-        <v>16</v>
-      </c>
-      <c r="BD44" s="49">
-        <v>18</v>
-      </c>
-      <c r="BE44" s="49">
-        <v>21</v>
-      </c>
-      <c r="BF44" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG44" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH44" s="50">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="BI44" s="50">
-        <v>0.375</v>
-      </c>
-      <c r="BJ44" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK44" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL44" s="63"/>
-      <c r="BM44" s="45"/>
-      <c r="BN44" s="45"/>
-    </row>
-    <row r="45" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="95">
-        <v>43130</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="100">
-        <v>0.75</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="N45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="O45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q45" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="R45" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S45" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="T45" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U45" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="V45" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="W45" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="X45" s="45">
-        <v>44</v>
-      </c>
-      <c r="Y45" s="45">
-        <f t="shared" si="9"/>
-        <v>0.8</v>
-      </c>
-      <c r="Z45" s="45">
-        <v>16</v>
-      </c>
-      <c r="AA45" s="45">
-        <v>12</v>
-      </c>
-      <c r="AB45" s="45">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-      <c r="AC45" s="45">
-        <f t="shared" si="11"/>
-        <v>0.7</v>
-      </c>
-      <c r="AD45" s="45">
-        <v>4</v>
-      </c>
-      <c r="AE45" s="45">
-        <f t="shared" si="12"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AF45" s="45">
-        <v>2</v>
-      </c>
-      <c r="AG45" s="45">
-        <v>10</v>
-      </c>
-      <c r="AH45" s="45">
-        <v>25</v>
-      </c>
-      <c r="AI45" s="45">
-        <v>40</v>
-      </c>
-      <c r="AJ45" s="45">
-        <v>57</v>
-      </c>
-      <c r="AK45" s="45">
-        <v>57</v>
-      </c>
-      <c r="AL45" s="45">
-        <v>80</v>
-      </c>
-      <c r="AM45" s="45">
-        <v>89</v>
-      </c>
-      <c r="AN45" s="45">
-        <v>79</v>
-      </c>
-      <c r="AO45" s="45">
-        <v>79</v>
-      </c>
-      <c r="AP45" s="45">
-        <v>103</v>
-      </c>
-      <c r="AQ45" s="45">
-        <v>58</v>
-      </c>
-      <c r="AR45" s="45">
-        <v>4</v>
-      </c>
-      <c r="AS45" s="15"/>
-      <c r="AT45" s="45">
-        <v>116</v>
-      </c>
-      <c r="AU45" s="45">
-        <v>11</v>
-      </c>
-      <c r="AV45" s="48">
-        <f t="shared" si="15"/>
-        <v>31.05590062111801</v>
-      </c>
-      <c r="AW45" s="45">
-        <v>95</v>
-      </c>
-      <c r="AX45" s="45">
-        <v>106</v>
-      </c>
-      <c r="AY45" s="45">
-        <v>77</v>
-      </c>
-      <c r="AZ45" s="45">
-        <v>135</v>
-      </c>
-      <c r="BA45" s="49">
-        <f t="shared" si="13"/>
-        <v>529</v>
-      </c>
-      <c r="BB45" s="45">
-        <v>46</v>
-      </c>
-      <c r="BC45" s="49">
-        <v>13</v>
-      </c>
-      <c r="BD45" s="49">
-        <v>20</v>
-      </c>
-      <c r="BE45" s="49">
-        <v>19</v>
-      </c>
-      <c r="BF45" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG45" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH45" s="50">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="BI45" s="50">
-        <v>0.375</v>
-      </c>
-      <c r="BJ45" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK45" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL45" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM45" s="45"/>
-      <c r="BN45" s="45"/>
+      <c r="BN45" s="120"/>
+      <c r="BO45" s="125"/>
     </row>
     <row r="46" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B46" s="95">
-        <v>43133</v>
+        <v>43062</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D46" s="100">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>71</v>
@@ -11307,110 +11383,110 @@
         <v>53</v>
       </c>
       <c r="X46" s="45">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="Y46" s="45">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="Z46" s="45">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA46" s="45">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB46" s="45">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC46" s="45">
         <f t="shared" si="11"/>
-        <v>0.7</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AD46" s="45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE46" s="45">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AF46" s="45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AH46" s="45">
+        <v>20</v>
+      </c>
+      <c r="AI46" s="45">
+        <v>20</v>
+      </c>
+      <c r="AJ46" s="45">
+        <v>26</v>
+      </c>
+      <c r="AK46" s="45">
+        <v>32</v>
+      </c>
+      <c r="AL46" s="45">
+        <v>35</v>
+      </c>
+      <c r="AM46" s="45">
+        <v>31</v>
+      </c>
+      <c r="AN46" s="45">
         <v>38</v>
       </c>
-      <c r="AI46" s="45">
-        <v>57</v>
-      </c>
-      <c r="AJ46" s="45">
-        <v>33</v>
-      </c>
-      <c r="AK46" s="45">
-        <v>40</v>
-      </c>
-      <c r="AL46" s="45">
-        <v>37</v>
-      </c>
-      <c r="AM46" s="45">
-        <v>38</v>
-      </c>
-      <c r="AN46" s="45">
-        <v>43</v>
-      </c>
       <c r="AO46" s="45">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="AP46" s="45">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AQ46" s="45">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AR46" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS46" s="15"/>
       <c r="AT46" s="45">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AU46" s="45">
         <v>4</v>
       </c>
       <c r="AV46" s="48">
-        <f t="shared" si="15"/>
-        <v>8.6419753086419746</v>
+        <f t="shared" ref="AV46:AV63" si="15">((AT46+AW46)-(AQ46+AP46))/(AQ46+AP46) *100</f>
+        <v>14.473684210526317</v>
       </c>
       <c r="AW46" s="45">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX46" s="45">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY46" s="45">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ46" s="45">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="BA46" s="49">
         <f t="shared" si="13"/>
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="BB46" s="45">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC46" s="49">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BD46" s="49">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BE46" s="49">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="BF46" s="45" t="s">
         <v>58</v>
@@ -11419,35 +11495,33 @@
         <v>55</v>
       </c>
       <c r="BH46" s="50">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="BI46" s="50">
-        <v>0.28125</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ46" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK46" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK46" s="45"/>
+      <c r="BL46" s="63"/>
+      <c r="BM46" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BL46" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM46" s="45"/>
       <c r="BN46" s="45"/>
     </row>
     <row r="47" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B47" s="95">
-        <v>43136</v>
+        <v>43080</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D47" s="100">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E47" s="43" t="s">
         <v>71</v>
@@ -11507,110 +11581,110 @@
         <v>53</v>
       </c>
       <c r="X47" s="45">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Y47" s="45">
         <f t="shared" si="9"/>
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="Z47" s="45">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AA47" s="45">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB47" s="45">
         <f t="shared" si="10"/>
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AC47" s="45">
         <f t="shared" si="11"/>
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="AD47" s="45">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE47" s="45">
         <f t="shared" si="12"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.35</v>
       </c>
       <c r="AF47" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AH47" s="45">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="AI47" s="45">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="AJ47" s="45">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AK47" s="45">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="AL47" s="45">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AM47" s="45">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="AN47" s="45">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="AO47" s="45">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="AP47" s="45">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="AQ47" s="45">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AR47" s="45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS47" s="15"/>
       <c r="AT47" s="45">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="AU47" s="45">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AV47" s="48">
         <f t="shared" si="15"/>
-        <v>-9.1954022988505741</v>
+        <v>23.981900452488688</v>
       </c>
       <c r="AW47" s="45">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="AX47" s="45">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="AY47" s="45">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="AZ47" s="45">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="BA47" s="49">
-        <f t="shared" ref="BA47:BA60" si="16">SUM(AT47,AW47,AX47,AY47,AZ47)</f>
-        <v>242</v>
+        <f t="shared" si="13"/>
+        <v>770</v>
       </c>
       <c r="BB47" s="45">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BC47" s="49">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD47" s="49">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BE47" s="49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BF47" s="45" t="s">
         <v>58</v>
@@ -11619,31 +11693,33 @@
         <v>55</v>
       </c>
       <c r="BH47" s="50">
-        <v>0.97916666666666663</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="BI47" s="50">
-        <v>0.32291666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="BJ47" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="BK47" s="45"/>
-      <c r="BL47" s="64"/>
+      <c r="BK47" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL47" s="63"/>
       <c r="BM47" s="45"/>
       <c r="BN47" s="45"/>
     </row>
     <row r="48" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B48" s="95">
-        <v>43138</v>
+        <v>43130</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D48" s="100">
-        <v>0.35416666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>71</v>
@@ -11703,110 +11779,110 @@
         <v>53</v>
       </c>
       <c r="X48" s="45">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Y48" s="45">
         <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="Z48" s="45">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AA48" s="45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB48" s="45">
         <f t="shared" si="10"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AC48" s="45">
         <f t="shared" si="11"/>
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="AD48" s="45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE48" s="45">
         <f t="shared" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AF48" s="45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG48" s="45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH48" s="45">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI48" s="45">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AJ48" s="45">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AK48" s="45">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AL48" s="45">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AM48" s="45">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AN48" s="45">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AO48" s="45">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AP48" s="45">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AQ48" s="45">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AR48" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS48" s="15"/>
       <c r="AT48" s="45">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="AU48" s="45">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV48" s="48">
         <f t="shared" si="15"/>
-        <v>16.470588235294116</v>
+        <v>31.05590062111801</v>
       </c>
       <c r="AW48" s="45">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AX48" s="45">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="AY48" s="45">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AZ48" s="45">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="BA48" s="49">
-        <f t="shared" si="16"/>
-        <v>242</v>
+        <f t="shared" si="13"/>
+        <v>529</v>
       </c>
       <c r="BB48" s="45">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="BC48" s="49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD48" s="49">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BE48" s="49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BF48" s="45" t="s">
         <v>58</v>
@@ -11815,40 +11891,35 @@
         <v>55</v>
       </c>
       <c r="BH48" s="50">
-        <v>0.95833333333333337</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="BI48" s="50">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="BJ48" s="45" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="BK48" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL48" s="63"/>
-      <c r="BM48" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BN48" s="45">
-        <v>24</v>
-      </c>
-      <c r="BO48" s="44" t="s">
-        <v>124</v>
-      </c>
+      <c r="BL48" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM48" s="45"/>
+      <c r="BN48" s="45"/>
     </row>
     <row r="49" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B49" s="95">
-        <v>43139</v>
+        <v>43133</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D49" s="100">
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>71</v>
@@ -11908,110 +11979,110 @@
         <v>53</v>
       </c>
       <c r="X49" s="45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y49" s="45">
         <f t="shared" si="9"/>
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="Z49" s="45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA49" s="45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB49" s="45">
         <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AC49" s="45">
         <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AD49" s="45">
         <v>0</v>
       </c>
       <c r="AE49" s="45">
         <f t="shared" si="12"/>
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AF49" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG49" s="45">
         <v>7</v>
       </c>
       <c r="AH49" s="45">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AI49" s="45">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AJ49" s="45">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AK49" s="45">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AL49" s="45">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AM49" s="45">
+        <v>38</v>
+      </c>
+      <c r="AN49" s="45">
+        <v>43</v>
+      </c>
+      <c r="AO49" s="45">
         <v>47</v>
       </c>
-      <c r="AN49" s="45">
-        <v>34</v>
-      </c>
-      <c r="AO49" s="45">
-        <v>37</v>
-      </c>
       <c r="AP49" s="45">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="AQ49" s="45">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AR49" s="45">
         <v>3</v>
       </c>
       <c r="AS49" s="15"/>
       <c r="AT49" s="45">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AU49" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV49" s="48">
         <f t="shared" si="15"/>
-        <v>34.782608695652172</v>
+        <v>8.6419753086419746</v>
       </c>
       <c r="AW49" s="45">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AX49" s="45">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AY49" s="45">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AZ49" s="45">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="BA49" s="49">
-        <f t="shared" si="16"/>
-        <v>196</v>
+        <f t="shared" si="13"/>
+        <v>228</v>
       </c>
       <c r="BB49" s="45">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="BC49" s="49">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD49" s="49">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BE49" s="49">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BF49" s="45" t="s">
         <v>58</v>
@@ -12023,38 +12094,35 @@
         <v>0.9375</v>
       </c>
       <c r="BI49" s="50">
-        <v>0.29166666666666669</v>
+        <v>0.28125</v>
       </c>
       <c r="BJ49" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK49" s="45"/>
-      <c r="BL49" s="63"/>
-      <c r="BM49" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK49" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BN49" s="45">
-        <v>120</v>
-      </c>
-      <c r="BO49" s="44" t="s">
-        <v>126</v>
-      </c>
+      <c r="BL49" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM49" s="45"/>
+      <c r="BN49" s="45"/>
     </row>
     <row r="50" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B50" s="95">
-        <v>43145</v>
+        <v>43136</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D50" s="100">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="F50" s="75" t="s">
         <v>53</v>
@@ -12108,113 +12176,113 @@
         <v>53</v>
       </c>
       <c r="W50" s="42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X50" s="45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y50" s="45">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z50" s="45">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AA50" s="45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB50" s="45">
         <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>0.375</v>
       </c>
       <c r="AC50" s="45">
         <f t="shared" si="11"/>
-        <v>0.85</v>
+        <v>0.625</v>
       </c>
       <c r="AD50" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE50" s="45">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="AF50" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG50" s="45">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AH50" s="45">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AI50" s="45">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ50" s="45">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK50" s="45">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AL50" s="45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM50" s="45">
+        <v>32</v>
+      </c>
+      <c r="AN50" s="45">
+        <v>43</v>
+      </c>
+      <c r="AO50" s="45">
         <v>41</v>
       </c>
-      <c r="AN50" s="45">
-        <v>34</v>
-      </c>
-      <c r="AO50" s="45">
+      <c r="AP50" s="45">
         <v>43</v>
       </c>
-      <c r="AP50" s="45">
-        <v>32</v>
-      </c>
       <c r="AQ50" s="45">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AR50" s="45">
         <v>4</v>
       </c>
       <c r="AS50" s="15"/>
       <c r="AT50" s="45">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AU50" s="45">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AV50" s="48">
         <f t="shared" si="15"/>
-        <v>8.8235294117647065</v>
+        <v>-9.1954022988505741</v>
       </c>
       <c r="AW50" s="45">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AX50" s="45">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="AY50" s="45">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AZ50" s="45">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="BA50" s="49">
-        <f t="shared" si="16"/>
-        <v>217</v>
+        <f t="shared" ref="BA50:BA63" si="16">SUM(AT50,AW50,AX50,AY50,AZ50)</f>
+        <v>242</v>
       </c>
       <c r="BB50" s="45">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="BC50" s="49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD50" s="49">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BE50" s="49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BF50" s="45" t="s">
         <v>58</v>
@@ -12223,37 +12291,33 @@
         <v>55</v>
       </c>
       <c r="BH50" s="50">
-        <v>0</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="BI50" s="50">
-        <v>0.5</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="BJ50" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK50" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL50" s="63" t="s">
-        <v>130</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="BK50" s="45"/>
+      <c r="BL50" s="64"/>
       <c r="BM50" s="45"/>
       <c r="BN50" s="45"/>
     </row>
     <row r="51" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B51" s="95">
-        <v>43132</v>
+        <v>43138</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="100">
-        <v>0.75</v>
-      </c>
-      <c r="E51" s="42" t="s">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E51" s="43" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="75" t="s">
@@ -12311,14 +12375,14 @@
         <v>53</v>
       </c>
       <c r="X51" s="45">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y51" s="45">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z51" s="45">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA51" s="45">
         <v>14</v>
@@ -12332,86 +12396,86 @@
         <v>0.65</v>
       </c>
       <c r="AD51" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="45">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="AF51" s="45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG51" s="45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH51" s="45">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AI51" s="45">
+        <v>27</v>
+      </c>
+      <c r="AJ51" s="45">
+        <v>37</v>
+      </c>
+      <c r="AK51" s="45">
+        <v>38</v>
+      </c>
+      <c r="AL51" s="45">
+        <v>34</v>
+      </c>
+      <c r="AM51" s="45">
+        <v>39</v>
+      </c>
+      <c r="AN51" s="45">
+        <v>39</v>
+      </c>
+      <c r="AO51" s="45">
+        <v>32</v>
+      </c>
+      <c r="AP51" s="45">
+        <v>44</v>
+      </c>
+      <c r="AQ51" s="45">
         <v>41</v>
       </c>
-      <c r="AJ51" s="45">
-        <v>26</v>
-      </c>
-      <c r="AK51" s="45">
-        <v>24</v>
-      </c>
-      <c r="AL51" s="45">
-        <v>30</v>
-      </c>
-      <c r="AM51" s="45">
-        <v>22</v>
-      </c>
-      <c r="AN51" s="45">
-        <v>33</v>
-      </c>
-      <c r="AO51" s="45">
-        <v>31</v>
-      </c>
-      <c r="AP51" s="45">
-        <v>31</v>
-      </c>
-      <c r="AQ51" s="45">
-        <v>23</v>
-      </c>
       <c r="AR51" s="45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS51" s="15"/>
       <c r="AT51" s="45">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AU51" s="45">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AV51" s="48">
         <f t="shared" si="15"/>
-        <v>46.296296296296298</v>
+        <v>16.470588235294116</v>
       </c>
       <c r="AW51" s="45">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AX51" s="45">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="AY51" s="45">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AZ51" s="45">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="BA51" s="49">
         <f t="shared" si="16"/>
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="BB51" s="45">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="BC51" s="49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD51" s="49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BE51" s="49">
         <v>21</v>
@@ -12423,37 +12487,42 @@
         <v>55</v>
       </c>
       <c r="BH51" s="50">
-        <v>0.48958333333333331</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="BI51" s="50">
-        <v>0.35416666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ51" s="45" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="BK51" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL51" s="63"/>
+      <c r="BM51" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BL51" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM51" s="45"/>
-      <c r="BN51" s="45"/>
+      <c r="BN51" s="45">
+        <v>24</v>
+      </c>
+      <c r="BO51" s="44" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="52" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B52" s="95">
-        <v>43145</v>
+        <v>43139</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="100">
-        <v>0.625</v>
-      </c>
-      <c r="E52" s="42" t="s">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E52" s="43" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="75" t="s">
@@ -12508,155 +12577,156 @@
         <v>53</v>
       </c>
       <c r="W52" s="42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X52" s="45">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Y52" s="45">
         <f t="shared" si="9"/>
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="Z52" s="45">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AA52" s="45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB52" s="45">
         <f t="shared" si="10"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AC52" s="45">
         <f t="shared" si="11"/>
-        <v>0.92500000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="AD52" s="45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="45">
         <f t="shared" si="12"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF52" s="45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG52" s="45">
+        <v>7</v>
+      </c>
+      <c r="AH52" s="45">
+        <v>24</v>
+      </c>
+      <c r="AI52" s="45">
+        <v>32</v>
+      </c>
+      <c r="AJ52" s="45">
+        <v>35</v>
+      </c>
+      <c r="AK52" s="45">
+        <v>25</v>
+      </c>
+      <c r="AL52" s="45">
+        <v>25</v>
+      </c>
+      <c r="AM52" s="45">
+        <v>47</v>
+      </c>
+      <c r="AN52" s="45">
+        <v>34</v>
+      </c>
+      <c r="AO52" s="45">
+        <v>37</v>
+      </c>
+      <c r="AP52" s="45">
+        <v>36</v>
+      </c>
+      <c r="AQ52" s="45">
+        <v>33</v>
+      </c>
+      <c r="AR52" s="45">
         <v>3</v>
-      </c>
-      <c r="AH52" s="45">
-        <v>26</v>
-      </c>
-      <c r="AI52" s="45">
-        <v>40</v>
-      </c>
-      <c r="AJ52" s="45">
-        <v>37</v>
-      </c>
-      <c r="AK52" s="45">
-        <v>58</v>
-      </c>
-      <c r="AL52" s="45">
-        <v>55</v>
-      </c>
-      <c r="AM52" s="45">
-        <v>86</v>
-      </c>
-      <c r="AN52" s="45">
-        <v>58</v>
-      </c>
-      <c r="AO52" s="45">
-        <v>51</v>
-      </c>
-      <c r="AP52" s="45">
-        <v>61</v>
-      </c>
-      <c r="AQ52" s="45">
-        <v>74</v>
-      </c>
-      <c r="AR52" s="45">
-        <v>5</v>
       </c>
       <c r="AS52" s="15"/>
       <c r="AT52" s="45">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AU52" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV52" s="48">
         <f t="shared" si="15"/>
-        <v>2.2222222222222223</v>
+        <v>34.782608695652172</v>
       </c>
       <c r="AW52" s="45">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="AX52" s="45">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AY52" s="45">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AZ52" s="45">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="BA52" s="49">
         <f t="shared" si="16"/>
-        <v>382</v>
+        <v>196</v>
       </c>
       <c r="BB52" s="45">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BC52" s="49">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD52" s="49">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BE52" s="49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF52" s="45" t="s">
         <v>58</v>
       </c>
       <c r="BG52" s="45" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="BH52" s="50">
-        <v>0.10416666666666667</v>
+        <v>0.9375</v>
       </c>
       <c r="BI52" s="50">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="BJ52" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK52" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL52" s="64">
-        <v>0.58333333333333337</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="BK52" s="45"/>
+      <c r="BL52" s="63"/>
       <c r="BM52" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BN52" s="45"/>
+      <c r="BN52" s="45">
+        <v>120</v>
+      </c>
+      <c r="BO52" s="44" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
-        <v>154</v>
+      <c r="A53" s="42" t="s">
+        <v>127</v>
       </c>
       <c r="B53" s="95">
-        <v>43417</v>
-      </c>
-      <c r="C53" s="45" t="s">
+        <v>43145</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D53" s="100">
-        <v>0.625</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>71</v>
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>128</v>
       </c>
       <c r="F53" s="75" t="s">
         <v>53</v>
@@ -12709,7 +12779,7 @@
       <c r="V53" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="W53" s="45" t="s">
+      <c r="W53" s="42" t="s">
         <v>51</v>
       </c>
       <c r="X53" s="45">
@@ -12717,106 +12787,106 @@
       </c>
       <c r="Y53" s="45">
         <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="Z53" s="45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA53" s="45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB53" s="45">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AC53" s="45">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AD53" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE53" s="45">
         <f t="shared" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="AF53" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG53" s="45">
         <v>5</v>
       </c>
       <c r="AH53" s="45">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI53" s="45">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AJ53" s="45">
+        <v>30</v>
+      </c>
+      <c r="AK53" s="45">
+        <v>29</v>
+      </c>
+      <c r="AL53" s="45">
+        <v>36</v>
+      </c>
+      <c r="AM53" s="45">
+        <v>41</v>
+      </c>
+      <c r="AN53" s="45">
+        <v>34</v>
+      </c>
+      <c r="AO53" s="45">
+        <v>43</v>
+      </c>
+      <c r="AP53" s="45">
         <v>32</v>
       </c>
-      <c r="AK53" s="45">
-        <v>32</v>
-      </c>
-      <c r="AL53" s="45">
-        <v>31</v>
-      </c>
-      <c r="AM53" s="45">
-        <v>29</v>
-      </c>
-      <c r="AN53" s="45">
+      <c r="AQ53" s="45">
         <v>36</v>
       </c>
-      <c r="AO53" s="45">
-        <v>31</v>
-      </c>
-      <c r="AP53" s="45">
-        <v>30</v>
-      </c>
-      <c r="AQ53" s="45">
-        <v>35</v>
-      </c>
       <c r="AR53" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS53" s="15"/>
       <c r="AT53" s="45">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AU53" s="45">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AV53" s="48">
         <f t="shared" si="15"/>
-        <v>9.2307692307692317</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="AW53" s="45">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AX53" s="45">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="AY53" s="45">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AZ53" s="45">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BA53" s="49">
         <f t="shared" si="16"/>
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="BB53" s="45">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BC53" s="49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BD53" s="49">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BE53" s="49">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BF53" s="45" t="s">
         <v>58</v>
@@ -12824,664 +12894,645 @@
       <c r="BG53" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="BH53" s="76">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="BI53" s="76">
+      <c r="BH53" s="50">
+        <v>0</v>
+      </c>
+      <c r="BI53" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="BJ53" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK53" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL53" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM53" s="45"/>
+      <c r="BN53" s="45"/>
+    </row>
+    <row r="54" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="95">
+        <v>43132</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="M54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="N54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="O54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="R54" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S54" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="T54" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U54" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="V54" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="X54" s="45">
+        <v>41</v>
+      </c>
+      <c r="Y54" s="45">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z54" s="45">
+        <v>15</v>
+      </c>
+      <c r="AA54" s="45">
+        <v>14</v>
+      </c>
+      <c r="AB54" s="45">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC54" s="45">
+        <f t="shared" si="11"/>
+        <v>0.65</v>
+      </c>
+      <c r="AD54" s="45">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="45">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF54" s="45">
+        <v>2</v>
+      </c>
+      <c r="AG54" s="45">
+        <v>12</v>
+      </c>
+      <c r="AH54" s="45">
+        <v>31</v>
+      </c>
+      <c r="AI54" s="45">
+        <v>41</v>
+      </c>
+      <c r="AJ54" s="45">
+        <v>26</v>
+      </c>
+      <c r="AK54" s="45">
+        <v>24</v>
+      </c>
+      <c r="AL54" s="45">
+        <v>30</v>
+      </c>
+      <c r="AM54" s="45">
+        <v>22</v>
+      </c>
+      <c r="AN54" s="45">
+        <v>33</v>
+      </c>
+      <c r="AO54" s="45">
+        <v>31</v>
+      </c>
+      <c r="AP54" s="45">
+        <v>31</v>
+      </c>
+      <c r="AQ54" s="45">
+        <v>23</v>
+      </c>
+      <c r="AR54" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="45">
+        <v>41</v>
+      </c>
+      <c r="AU54" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="AV54" s="48">
+        <f t="shared" si="15"/>
+        <v>46.296296296296298</v>
+      </c>
+      <c r="AW54" s="45">
+        <v>38</v>
+      </c>
+      <c r="AX54" s="45">
+        <v>30</v>
+      </c>
+      <c r="AY54" s="45">
+        <v>37</v>
+      </c>
+      <c r="AZ54" s="45">
+        <v>52</v>
+      </c>
+      <c r="BA54" s="49">
+        <f t="shared" si="16"/>
+        <v>198</v>
+      </c>
+      <c r="BB54" s="45">
+        <v>48</v>
+      </c>
+      <c r="BC54" s="49">
+        <v>9</v>
+      </c>
+      <c r="BD54" s="49">
+        <v>10</v>
+      </c>
+      <c r="BE54" s="49">
+        <v>21</v>
+      </c>
+      <c r="BF54" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG54" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH54" s="50">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="BI54" s="50">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="BJ54" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK54" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL54" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM54" s="45"/>
+      <c r="BN54" s="45"/>
+    </row>
+    <row r="55" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="95">
+        <v>43145</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="100">
+        <v>0.625</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="L55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="M55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="N55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="O55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="R55" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S55" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="T55" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U55" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="V55" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="W55" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="X55" s="45">
+        <v>55</v>
+      </c>
+      <c r="Y55" s="45">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z55" s="45">
+        <v>18</v>
+      </c>
+      <c r="AA55" s="45">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="45">
+        <f t="shared" si="10"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC55" s="45">
+        <f t="shared" si="11"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AD55" s="45">
+        <v>15</v>
+      </c>
+      <c r="AE55" s="45">
+        <f t="shared" si="12"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AF55" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="45">
+        <v>3</v>
+      </c>
+      <c r="AH55" s="45">
+        <v>26</v>
+      </c>
+      <c r="AI55" s="45">
+        <v>40</v>
+      </c>
+      <c r="AJ55" s="45">
+        <v>37</v>
+      </c>
+      <c r="AK55" s="45">
+        <v>58</v>
+      </c>
+      <c r="AL55" s="45">
+        <v>55</v>
+      </c>
+      <c r="AM55" s="45">
+        <v>86</v>
+      </c>
+      <c r="AN55" s="45">
+        <v>58</v>
+      </c>
+      <c r="AO55" s="45">
+        <v>51</v>
+      </c>
+      <c r="AP55" s="45">
+        <v>61</v>
+      </c>
+      <c r="AQ55" s="45">
+        <v>74</v>
+      </c>
+      <c r="AR55" s="45">
+        <v>5</v>
+      </c>
+      <c r="AS55" s="15"/>
+      <c r="AT55" s="45">
+        <v>47</v>
+      </c>
+      <c r="AU55" s="45">
+        <v>4</v>
+      </c>
+      <c r="AV55" s="48">
+        <f t="shared" si="15"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AW55" s="45">
+        <v>91</v>
+      </c>
+      <c r="AX55" s="45">
+        <v>92</v>
+      </c>
+      <c r="AY55" s="45">
+        <v>87</v>
+      </c>
+      <c r="AZ55" s="45">
+        <v>65</v>
+      </c>
+      <c r="BA55" s="49">
+        <f t="shared" si="16"/>
+        <v>382</v>
+      </c>
+      <c r="BB55" s="45">
+        <v>48</v>
+      </c>
+      <c r="BC55" s="49">
+        <v>9</v>
+      </c>
+      <c r="BD55" s="49">
+        <v>14</v>
+      </c>
+      <c r="BE55" s="49">
+        <v>20</v>
+      </c>
+      <c r="BF55" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG55" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH55" s="50">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="BI55" s="50">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BJ53" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK53" s="45" t="s">
+      <c r="BJ55" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK55" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL55" s="64">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="BM55" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN55" s="45"/>
+    </row>
+    <row r="56" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="95">
+        <v>43417</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="100">
+        <v>0.625</v>
+      </c>
+      <c r="E56" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="BL53" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM53" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN53" s="45">
-        <v>12</v>
-      </c>
-      <c r="BO53" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="101">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E54" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="H54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="I54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="L54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="M54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="O54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q54" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R54" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S54" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="T54" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="U54" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="V54" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W54" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="X54" s="77">
-        <v>48</v>
-      </c>
-      <c r="Y54" s="77">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="Z54" s="77">
-        <v>14</v>
-      </c>
-      <c r="AA54" s="77">
-        <v>6</v>
-      </c>
-      <c r="AB54" s="77">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
-      </c>
-      <c r="AC54" s="77">
-        <f t="shared" si="11"/>
-        <v>0.85</v>
-      </c>
-      <c r="AD54" s="77">
-        <v>8</v>
-      </c>
-      <c r="AE54" s="77">
-        <f t="shared" si="12"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AF54" s="77">
-        <v>1</v>
-      </c>
-      <c r="AG54" s="77">
-        <v>5</v>
-      </c>
-      <c r="AH54" s="77">
-        <v>24</v>
-      </c>
-      <c r="AI54" s="77">
-        <v>30</v>
-      </c>
-      <c r="AJ54" s="77">
-        <v>37</v>
-      </c>
-      <c r="AK54" s="77">
-        <v>36</v>
-      </c>
-      <c r="AL54" s="77">
-        <v>32</v>
-      </c>
-      <c r="AM54" s="77">
-        <v>34</v>
-      </c>
-      <c r="AN54" s="77">
-        <v>31</v>
-      </c>
-      <c r="AO54" s="77">
-        <v>32</v>
-      </c>
-      <c r="AP54" s="77">
-        <v>34</v>
-      </c>
-      <c r="AQ54" s="77">
-        <v>33</v>
-      </c>
-      <c r="AR54" s="77">
-        <v>3</v>
-      </c>
-      <c r="AS54" s="15"/>
-      <c r="AT54" s="77">
-        <v>41</v>
-      </c>
-      <c r="AU54" s="77">
-        <v>3</v>
-      </c>
-      <c r="AV54" s="83">
-        <f t="shared" si="15"/>
-        <v>16.417910447761194</v>
-      </c>
-      <c r="AW54" s="77">
-        <v>37</v>
-      </c>
-      <c r="AX54" s="77">
-        <v>36</v>
-      </c>
-      <c r="AY54" s="77">
-        <v>43</v>
-      </c>
-      <c r="AZ54" s="77">
-        <v>37</v>
-      </c>
-      <c r="BA54" s="84">
-        <f t="shared" si="16"/>
-        <v>194</v>
-      </c>
-      <c r="BB54" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC54" s="77">
-        <v>8</v>
-      </c>
-      <c r="BD54" s="77">
-        <v>11</v>
-      </c>
-      <c r="BE54" s="84">
-        <v>26</v>
-      </c>
-      <c r="BF54" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG54" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH54" s="85">
-        <v>0.125</v>
-      </c>
-      <c r="BI54" s="85">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="BJ54" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK54" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL54" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM54" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN54" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO54" s="77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="101">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E55" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="I55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="K55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="L55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="M55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="O55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q55" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R55" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S55" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="T55" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="U55" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="V55" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W55" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="X55" s="77">
-        <v>40</v>
-      </c>
-      <c r="Y55" s="77">
+      <c r="F56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="N56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="O56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="R56" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S56" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="T56" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="V56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="W56" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="X56" s="45">
+        <v>44</v>
+      </c>
+      <c r="Y56" s="45">
         <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z55" s="77">
+      <c r="Z56" s="45">
         <v>11</v>
       </c>
-      <c r="AA55" s="77">
-        <v>11</v>
-      </c>
-      <c r="AB55" s="77">
+      <c r="AA56" s="45">
+        <v>8</v>
+      </c>
+      <c r="AB56" s="45">
         <f t="shared" si="10"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AC55" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="AC56" s="45">
         <f t="shared" si="11"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="AD55" s="77">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="AD56" s="45">
+        <v>3</v>
+      </c>
+      <c r="AE56" s="45">
         <f t="shared" si="12"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="AF55" s="77">
+      <c r="AF56" s="45">
+        <v>3</v>
+      </c>
+      <c r="AG56" s="45">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="45">
+        <v>26</v>
+      </c>
+      <c r="AI56" s="45">
+        <v>23</v>
+      </c>
+      <c r="AJ56" s="45">
+        <v>32</v>
+      </c>
+      <c r="AK56" s="45">
+        <v>32</v>
+      </c>
+      <c r="AL56" s="45">
+        <v>31</v>
+      </c>
+      <c r="AM56" s="45">
+        <v>29</v>
+      </c>
+      <c r="AN56" s="45">
+        <v>36</v>
+      </c>
+      <c r="AO56" s="45">
+        <v>31</v>
+      </c>
+      <c r="AP56" s="45">
+        <v>30</v>
+      </c>
+      <c r="AQ56" s="45">
+        <v>35</v>
+      </c>
+      <c r="AR56" s="45">
+        <v>3</v>
+      </c>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="45">
+        <v>38</v>
+      </c>
+      <c r="AU56" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="AV56" s="48">
+        <f t="shared" si="15"/>
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="AW56" s="45">
+        <v>33</v>
+      </c>
+      <c r="AX56" s="45">
+        <v>28</v>
+      </c>
+      <c r="AY56" s="45">
+        <v>45</v>
+      </c>
+      <c r="AZ56" s="45">
+        <v>35</v>
+      </c>
+      <c r="BA56" s="49">
+        <f t="shared" si="16"/>
+        <v>179</v>
+      </c>
+      <c r="BB56" s="45">
+        <v>32</v>
+      </c>
+      <c r="BC56" s="49">
         <v>1</v>
       </c>
-      <c r="AG55" s="77">
-        <v>10</v>
-      </c>
-      <c r="AH55" s="77">
-        <v>30</v>
-      </c>
-      <c r="AI55" s="77">
-        <v>33</v>
-      </c>
-      <c r="AJ55" s="77">
-        <v>47</v>
-      </c>
-      <c r="AK55" s="77">
-        <v>39</v>
-      </c>
-      <c r="AL55" s="77">
-        <v>40</v>
-      </c>
-      <c r="AM55" s="77">
-        <v>37</v>
-      </c>
-      <c r="AN55" s="77">
-        <v>35</v>
-      </c>
-      <c r="AO55" s="77">
-        <v>60</v>
-      </c>
-      <c r="AP55" s="77">
-        <v>35</v>
-      </c>
-      <c r="AQ55" s="77">
-        <v>54</v>
-      </c>
-      <c r="AR55" s="77">
-        <v>3.5</v>
-      </c>
-      <c r="AS55" s="15"/>
-      <c r="AT55" s="77">
-        <v>42</v>
-      </c>
-      <c r="AU55" s="77">
-        <v>3</v>
-      </c>
-      <c r="AV55" s="83">
-        <f t="shared" si="15"/>
-        <v>1.1235955056179776</v>
-      </c>
-      <c r="AW55" s="77">
-        <v>48</v>
-      </c>
-      <c r="AX55" s="77">
+      <c r="BD56" s="49">
+        <v>4</v>
+      </c>
+      <c r="BE56" s="49">
+        <v>20</v>
+      </c>
+      <c r="BF56" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG56" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AY55" s="77">
+      <c r="BH56" s="76">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="BI56" s="76">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BJ56" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK56" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL56" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM56" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AZ55" s="77">
-        <v>79</v>
-      </c>
-      <c r="BA55" s="84">
-        <f t="shared" si="16"/>
-        <v>283</v>
-      </c>
-      <c r="BB55" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC55" s="87">
-        <v>10</v>
-      </c>
-      <c r="BD55" s="87">
-        <v>14</v>
-      </c>
-      <c r="BE55" s="84">
-        <v>23</v>
-      </c>
-      <c r="BF55" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG55" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH55" s="85">
-        <v>0</v>
-      </c>
-      <c r="BI55" s="85">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="BJ55" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK55" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL55" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM55" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN55" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO55" s="77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="101">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E56" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="L56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="O56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q56" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R56" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S56" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="T56" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="U56" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="V56" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W56" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="X56" s="77">
-        <v>39</v>
-      </c>
-      <c r="Y56" s="77">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="Z56" s="77">
-        <v>8</v>
-      </c>
-      <c r="AA56" s="77">
-        <v>9</v>
-      </c>
-      <c r="AB56" s="77">
-        <f t="shared" si="10"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="AC56" s="77">
-        <f t="shared" si="11"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="AD56" s="77">
-        <v>-1</v>
-      </c>
-      <c r="AE56" s="77">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
-      </c>
-      <c r="AF56" s="77">
-        <v>3</v>
-      </c>
-      <c r="AG56" s="77">
-        <v>6</v>
-      </c>
-      <c r="AH56" s="77">
-        <v>26</v>
-      </c>
-      <c r="AI56" s="77">
-        <v>28</v>
-      </c>
-      <c r="AJ56" s="77">
-        <v>28</v>
-      </c>
-      <c r="AK56" s="77">
-        <v>34</v>
-      </c>
-      <c r="AL56" s="77">
-        <v>25</v>
-      </c>
-      <c r="AM56" s="77">
-        <v>32</v>
-      </c>
-      <c r="AN56" s="77">
-        <v>34</v>
-      </c>
-      <c r="AO56" s="77">
-        <v>35</v>
-      </c>
-      <c r="AP56" s="77">
-        <v>32</v>
-      </c>
-      <c r="AQ56" s="77">
-        <v>25</v>
-      </c>
-      <c r="AR56" s="77">
-        <v>3</v>
-      </c>
-      <c r="AS56" s="15"/>
-      <c r="AT56" s="77">
-        <v>47</v>
-      </c>
-      <c r="AU56" s="77">
-        <v>3.5</v>
-      </c>
-      <c r="AV56" s="83">
-        <f t="shared" si="15"/>
-        <v>43.859649122807014</v>
-      </c>
-      <c r="AW56" s="77">
-        <v>35</v>
-      </c>
-      <c r="AX56" s="77">
-        <v>38</v>
-      </c>
-      <c r="AY56" s="77">
-        <v>47</v>
-      </c>
-      <c r="AZ56" s="77">
-        <v>41</v>
-      </c>
-      <c r="BA56" s="84">
-        <f t="shared" si="16"/>
-        <v>208</v>
-      </c>
-      <c r="BB56" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC56" s="87">
-        <v>11</v>
-      </c>
-      <c r="BD56" s="87">
-        <v>14</v>
-      </c>
-      <c r="BE56" s="84">
-        <v>18</v>
-      </c>
-      <c r="BF56" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG56" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH56" s="85">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="BI56" s="85">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="BJ56" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK56" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL56" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM56" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN56" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO56" s="77" t="s">
-        <v>53</v>
+      <c r="BN56" s="45">
+        <v>12</v>
+      </c>
+      <c r="BO56" s="44" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="77" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B57" s="88" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C57" s="77" t="s">
         <v>116</v>
       </c>
       <c r="D57" s="101">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E57" s="77" t="s">
         <v>71</v>
@@ -13541,125 +13592,125 @@
         <v>53</v>
       </c>
       <c r="X57" s="77">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y57" s="77">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z57" s="77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA57" s="77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB57" s="77">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AC57" s="77">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AD57" s="77">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE57" s="77">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AF57" s="77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG57" s="77">
         <v>5</v>
       </c>
       <c r="AH57" s="77">
+        <v>24</v>
+      </c>
+      <c r="AI57" s="77">
+        <v>30</v>
+      </c>
+      <c r="AJ57" s="77">
+        <v>37</v>
+      </c>
+      <c r="AK57" s="77">
+        <v>36</v>
+      </c>
+      <c r="AL57" s="77">
         <v>32</v>
       </c>
-      <c r="AI57" s="77">
-        <v>22</v>
-      </c>
-      <c r="AJ57" s="77">
-        <v>18</v>
-      </c>
-      <c r="AK57" s="77">
-        <v>29</v>
-      </c>
-      <c r="AL57" s="77">
-        <v>29</v>
-      </c>
       <c r="AM57" s="77">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AN57" s="77">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AO57" s="77">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP57" s="77">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ57" s="77">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AR57" s="77">
         <v>3</v>
       </c>
       <c r="AS57" s="15"/>
       <c r="AT57" s="77">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AU57" s="77">
         <v>3</v>
       </c>
       <c r="AV57" s="83">
         <f t="shared" si="15"/>
-        <v>38.596491228070171</v>
+        <v>16.417910447761194</v>
       </c>
       <c r="AW57" s="77">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AX57" s="77">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AY57" s="77">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="AZ57" s="77">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BA57" s="84">
         <f t="shared" si="16"/>
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="BB57" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="BC57" s="87">
-        <v>6</v>
-      </c>
-      <c r="BD57" s="87">
-        <v>4</v>
+      <c r="BC57" s="77">
+        <v>8</v>
+      </c>
+      <c r="BD57" s="77">
+        <v>11</v>
       </c>
       <c r="BE57" s="84">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BF57" s="77" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BG57" s="77" t="s">
         <v>55</v>
       </c>
       <c r="BH57" s="85">
-        <v>2.0833333333333332E-2</v>
+        <v>0.125</v>
       </c>
       <c r="BI57" s="85">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ57" s="77" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="BK57" s="77" t="s">
         <v>59</v>
@@ -13679,16 +13730,16 @@
     </row>
     <row r="58" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="77" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B58" s="88" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C58" s="77" t="s">
         <v>116</v>
       </c>
       <c r="D58" s="101">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E58" s="77" t="s">
         <v>71</v>
@@ -13748,47 +13799,47 @@
         <v>53</v>
       </c>
       <c r="X58" s="77">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Y58" s="77">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z58" s="77">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA58" s="77">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AB58" s="77">
         <f t="shared" si="10"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AC58" s="77">
         <f t="shared" si="11"/>
-        <v>0.92500000000000004</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="AD58" s="77">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="77">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="AF58" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="77">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH58" s="77">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI58" s="77">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AJ58" s="77">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AK58" s="77">
         <v>39</v>
@@ -13797,61 +13848,61 @@
         <v>40</v>
       </c>
       <c r="AM58" s="77">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AN58" s="77">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AO58" s="77">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP58" s="77">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AQ58" s="77">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AR58" s="77">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AS58" s="15"/>
       <c r="AT58" s="77">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AU58" s="77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV58" s="83">
         <f t="shared" si="15"/>
-        <v>-10.638297872340425</v>
+        <v>1.1235955056179776</v>
       </c>
       <c r="AW58" s="77">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AX58" s="77">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="AY58" s="77">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AZ58" s="77">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="BA58" s="84">
         <f t="shared" si="16"/>
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="BB58" s="77" t="s">
         <v>53</v>
       </c>
       <c r="BC58" s="87">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD58" s="87">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BE58" s="84">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BF58" s="77" t="s">
         <v>58</v>
@@ -13860,16 +13911,16 @@
         <v>55</v>
       </c>
       <c r="BH58" s="85">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="85">
         <v>0.39583333333333331</v>
       </c>
       <c r="BJ58" s="77" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="BK58" s="77" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="BL58" s="86" t="s">
         <v>53</v>
@@ -13886,16 +13937,16 @@
     </row>
     <row r="59" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B59" s="88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C59" s="77" t="s">
         <v>116</v>
       </c>
       <c r="D59" s="101">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E59" s="77" t="s">
         <v>71</v>
@@ -13955,104 +14006,104 @@
         <v>53</v>
       </c>
       <c r="X59" s="77">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y59" s="77">
         <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="Z59" s="77">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA59" s="77">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB59" s="77">
         <f t="shared" si="10"/>
-        <v>0.32500000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AC59" s="77">
         <f t="shared" si="11"/>
-        <v>0.67500000000000004</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="AD59" s="77">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE59" s="77">
         <f t="shared" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="AF59" s="77">
         <v>3</v>
       </c>
       <c r="AG59" s="77">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AH59" s="77">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI59" s="77">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ59" s="77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK59" s="77">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AL59" s="77">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM59" s="77">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AN59" s="77">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AO59" s="77">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AP59" s="77">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AQ59" s="77">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AR59" s="77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS59" s="15"/>
       <c r="AT59" s="77">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="AU59" s="77">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AV59" s="83">
         <f t="shared" si="15"/>
-        <v>-21.666666666666668</v>
+        <v>43.859649122807014</v>
       </c>
       <c r="AW59" s="77">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AX59" s="77">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AY59" s="77">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AZ59" s="77">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BA59" s="84">
         <f t="shared" si="16"/>
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="BB59" s="77" t="s">
         <v>53</v>
       </c>
       <c r="BC59" s="87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD59" s="87">
         <v>14</v>
@@ -14067,16 +14118,16 @@
         <v>55</v>
       </c>
       <c r="BH59" s="85">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="BI59" s="85">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ59" s="77" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="BK59" s="77" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="BL59" s="86" t="s">
         <v>53</v>
@@ -14093,10 +14144,10 @@
     </row>
     <row r="60" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="89" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="B60" s="88" t="s">
+        <v>167</v>
       </c>
       <c r="C60" s="77" t="s">
         <v>116</v>
@@ -14162,107 +14213,107 @@
         <v>53</v>
       </c>
       <c r="X60" s="77">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Y60" s="77">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z60" s="77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA60" s="77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB60" s="77">
         <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AC60" s="77">
         <f t="shared" si="11"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="AD60" s="77">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE60" s="77">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AF60" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG60" s="77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH60" s="77">
         <v>32</v>
       </c>
       <c r="AI60" s="77">
+        <v>22</v>
+      </c>
+      <c r="AJ60" s="77">
+        <v>18</v>
+      </c>
+      <c r="AK60" s="77">
+        <v>29</v>
+      </c>
+      <c r="AL60" s="77">
+        <v>29</v>
+      </c>
+      <c r="AM60" s="77">
+        <v>30</v>
+      </c>
+      <c r="AN60" s="77">
+        <v>28</v>
+      </c>
+      <c r="AO60" s="77">
+        <v>35</v>
+      </c>
+      <c r="AP60" s="77">
         <v>26</v>
       </c>
-      <c r="AJ60" s="77">
-        <v>45</v>
-      </c>
-      <c r="AK60" s="77">
-        <v>38</v>
-      </c>
-      <c r="AL60" s="77">
-        <v>62</v>
-      </c>
-      <c r="AM60" s="77">
-        <v>56</v>
-      </c>
-      <c r="AN60" s="77">
-        <v>67</v>
-      </c>
-      <c r="AO60" s="77">
-        <v>57</v>
-      </c>
-      <c r="AP60" s="77">
-        <v>99</v>
-      </c>
       <c r="AQ60" s="77">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="AR60" s="77">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AS60" s="15"/>
       <c r="AT60" s="77">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="AU60" s="77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV60" s="83">
         <f t="shared" si="15"/>
-        <v>-49.760765550239235</v>
+        <v>38.596491228070171</v>
       </c>
       <c r="AW60" s="77">
         <v>47</v>
       </c>
       <c r="AX60" s="77">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AY60" s="77">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="AZ60" s="77">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="BA60" s="84">
         <f t="shared" si="16"/>
-        <v>365</v>
+        <v>177</v>
       </c>
       <c r="BB60" s="77" t="s">
         <v>53</v>
       </c>
       <c r="BC60" s="87">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD60" s="87">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BE60" s="84">
         <v>18</v>
@@ -14274,16 +14325,16 @@
         <v>55</v>
       </c>
       <c r="BH60" s="85">
-        <v>0.95833333333333337</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="BI60" s="85">
-        <v>0.25</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ60" s="77" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="BK60" s="77" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="BL60" s="86" t="s">
         <v>53</v>
@@ -14298,52 +14349,673 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="AH61"/>
-      <c r="AI61"/>
-      <c r="AJ61"/>
-      <c r="AK61"/>
-      <c r="AL61"/>
-      <c r="AM61"/>
-      <c r="AN61"/>
-      <c r="AO61"/>
-      <c r="AP61"/>
-      <c r="AV61" s="77"/>
-      <c r="AZ61" s="19"/>
-      <c r="BA61" s="84"/>
+    <row r="61" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="101">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E61" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="M61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="N61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="O61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="R61" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="S61" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T61" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="U61" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="V61" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="W61" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="X61" s="77">
+        <v>52</v>
+      </c>
+      <c r="Y61" s="77">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z61" s="77">
+        <v>15</v>
+      </c>
+      <c r="AA61" s="77">
+        <v>3</v>
+      </c>
+      <c r="AB61" s="77">
+        <f t="shared" si="10"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC61" s="77">
+        <f t="shared" si="11"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AD61" s="77">
+        <v>12</v>
+      </c>
+      <c r="AE61" s="77">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF61" s="77">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="77">
+        <v>3</v>
+      </c>
+      <c r="AH61" s="77">
+        <v>36</v>
+      </c>
+      <c r="AI61" s="77">
+        <v>30</v>
+      </c>
+      <c r="AJ61" s="77">
+        <v>29</v>
+      </c>
+      <c r="AK61" s="77">
+        <v>39</v>
+      </c>
+      <c r="AL61" s="77">
+        <v>40</v>
+      </c>
+      <c r="AM61" s="77">
+        <v>31</v>
+      </c>
+      <c r="AN61" s="77">
+        <v>34</v>
+      </c>
+      <c r="AO61" s="77">
+        <v>40</v>
+      </c>
+      <c r="AP61" s="77">
+        <v>46</v>
+      </c>
+      <c r="AQ61" s="77">
+        <v>48</v>
+      </c>
+      <c r="AR61" s="77">
+        <v>4</v>
+      </c>
+      <c r="AS61" s="15"/>
+      <c r="AT61" s="77">
+        <v>48</v>
+      </c>
+      <c r="AU61" s="77">
+        <v>5</v>
+      </c>
+      <c r="AV61" s="83">
+        <f t="shared" si="15"/>
+        <v>-10.638297872340425</v>
+      </c>
+      <c r="AW61" s="77">
+        <v>36</v>
+      </c>
+      <c r="AX61" s="77">
+        <v>39</v>
+      </c>
+      <c r="AY61" s="77">
+        <v>56</v>
+      </c>
+      <c r="AZ61" s="77">
+        <v>56</v>
+      </c>
+      <c r="BA61" s="84">
+        <f t="shared" si="16"/>
+        <v>235</v>
+      </c>
+      <c r="BB61" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC61" s="87">
+        <v>12</v>
+      </c>
+      <c r="BD61" s="87">
+        <v>17</v>
+      </c>
+      <c r="BE61" s="84">
+        <v>18</v>
+      </c>
+      <c r="BF61" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG61" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH61" s="85">
+        <v>6.25E-2</v>
+      </c>
+      <c r="BI61" s="85">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="BJ61" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK61" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL61" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM61" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN61" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO61" s="77" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="AZ62" s="19"/>
-      <c r="BA62" s="52"/>
+    <row r="62" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="101">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="M62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="O62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="R62" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="S62" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T62" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="U62" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="V62" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="W62" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="X62" s="77">
+        <v>38</v>
+      </c>
+      <c r="Y62" s="77">
+        <f t="shared" si="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z62" s="77">
+        <v>11</v>
+      </c>
+      <c r="AA62" s="77">
+        <v>13</v>
+      </c>
+      <c r="AB62" s="77">
+        <f t="shared" si="10"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AC62" s="77">
+        <f t="shared" si="11"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AD62" s="77">
+        <v>-2</v>
+      </c>
+      <c r="AE62" s="77">
+        <f t="shared" si="12"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AF62" s="77">
+        <v>3</v>
+      </c>
+      <c r="AG62" s="77">
+        <v>10</v>
+      </c>
+      <c r="AH62" s="77">
+        <v>21</v>
+      </c>
+      <c r="AI62" s="77">
+        <v>27</v>
+      </c>
+      <c r="AJ62" s="77">
+        <v>29</v>
+      </c>
+      <c r="AK62" s="77">
+        <v>24</v>
+      </c>
+      <c r="AL62" s="77">
+        <v>23</v>
+      </c>
+      <c r="AM62" s="77">
+        <v>19</v>
+      </c>
+      <c r="AN62" s="77">
+        <v>20</v>
+      </c>
+      <c r="AO62" s="77">
+        <v>23</v>
+      </c>
+      <c r="AP62" s="77">
+        <v>28</v>
+      </c>
+      <c r="AQ62" s="77">
+        <v>32</v>
+      </c>
+      <c r="AR62" s="77">
+        <v>2.5</v>
+      </c>
+      <c r="AS62" s="15"/>
+      <c r="AT62" s="77">
+        <v>24</v>
+      </c>
+      <c r="AU62" s="77">
+        <v>2</v>
+      </c>
+      <c r="AV62" s="83">
+        <f t="shared" si="15"/>
+        <v>-21.666666666666668</v>
+      </c>
+      <c r="AW62" s="77">
+        <v>23</v>
+      </c>
+      <c r="AX62" s="77">
+        <v>21</v>
+      </c>
+      <c r="AY62" s="77">
+        <v>27</v>
+      </c>
+      <c r="AZ62" s="77">
+        <v>37</v>
+      </c>
+      <c r="BA62" s="84">
+        <f t="shared" si="16"/>
+        <v>132</v>
+      </c>
+      <c r="BB62" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC62" s="87">
+        <v>12</v>
+      </c>
+      <c r="BD62" s="87">
+        <v>14</v>
+      </c>
+      <c r="BE62" s="84">
+        <v>18</v>
+      </c>
+      <c r="BF62" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG62" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH62" s="85">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BI62" s="85">
+        <v>0.375</v>
+      </c>
+      <c r="BJ62" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK62" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL62" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM62" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN62" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO62" s="77" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
-      <c r="AM63"/>
-      <c r="AN63"/>
-      <c r="AO63"/>
-      <c r="AP63"/>
-      <c r="AZ63" s="19"/>
-      <c r="BA63" s="52"/>
+    <row r="63" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="101">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E63" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="M63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="N63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="O63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="R63" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="S63" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T63" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="U63" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="V63" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="W63" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="X63" s="77">
+        <v>49</v>
+      </c>
+      <c r="Y63" s="77">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z63" s="77">
+        <v>15</v>
+      </c>
+      <c r="AA63" s="77">
+        <v>6</v>
+      </c>
+      <c r="AB63" s="77">
+        <f t="shared" si="10"/>
+        <v>0.15</v>
+      </c>
+      <c r="AC63" s="77">
+        <f t="shared" si="11"/>
+        <v>0.85</v>
+      </c>
+      <c r="AD63" s="77">
+        <v>9</v>
+      </c>
+      <c r="AE63" s="77">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF63" s="77">
+        <v>2</v>
+      </c>
+      <c r="AG63" s="77">
+        <v>4</v>
+      </c>
+      <c r="AH63" s="77">
+        <v>32</v>
+      </c>
+      <c r="AI63" s="77">
+        <v>26</v>
+      </c>
+      <c r="AJ63" s="77">
+        <v>45</v>
+      </c>
+      <c r="AK63" s="77">
+        <v>38</v>
+      </c>
+      <c r="AL63" s="77">
+        <v>62</v>
+      </c>
+      <c r="AM63" s="77">
+        <v>56</v>
+      </c>
+      <c r="AN63" s="77">
+        <v>67</v>
+      </c>
+      <c r="AO63" s="77">
+        <v>57</v>
+      </c>
+      <c r="AP63" s="77">
+        <v>99</v>
+      </c>
+      <c r="AQ63" s="77">
+        <v>110</v>
+      </c>
+      <c r="AR63" s="77">
+        <v>10</v>
+      </c>
+      <c r="AS63" s="15"/>
+      <c r="AT63" s="77">
+        <v>58</v>
+      </c>
+      <c r="AU63" s="77">
+        <v>5</v>
+      </c>
+      <c r="AV63" s="83">
+        <f t="shared" si="15"/>
+        <v>-49.760765550239235</v>
+      </c>
+      <c r="AW63" s="77">
+        <v>47</v>
+      </c>
+      <c r="AX63" s="77">
+        <v>82</v>
+      </c>
+      <c r="AY63" s="77">
+        <v>84</v>
+      </c>
+      <c r="AZ63" s="77">
+        <v>94</v>
+      </c>
+      <c r="BA63" s="84">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="BB63" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC63" s="87">
+        <v>11</v>
+      </c>
+      <c r="BD63" s="87">
+        <v>15</v>
+      </c>
+      <c r="BE63" s="84">
+        <v>18</v>
+      </c>
+      <c r="BF63" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG63" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH63" s="85">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="BI63" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="BJ63" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK63" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL63" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM63" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN63" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO63" s="77" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AV64" s="77"/>
       <c r="AZ64" s="19"/>
-      <c r="BA64" s="52"/>
+      <c r="BA64" s="84"/>
     </row>
-    <row r="65" spans="52:53" x14ac:dyDescent="0.2">
+    <row r="65" spans="34:53" x14ac:dyDescent="0.2">
       <c r="AZ65" s="19"/>
       <c r="BA65" s="52"/>
     </row>
-    <row r="66" spans="52:53" x14ac:dyDescent="0.2">
+    <row r="66" spans="34:53" x14ac:dyDescent="0.2">
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
       <c r="AZ66" s="19"/>
       <c r="BA66" s="52"/>
     </row>
-    <row r="67" spans="52:53" x14ac:dyDescent="0.2">
+    <row r="67" spans="34:53" x14ac:dyDescent="0.2">
       <c r="AZ67" s="19"/>
       <c r="BA67" s="52"/>
+    </row>
+    <row r="68" spans="34:53" x14ac:dyDescent="0.2">
+      <c r="AZ68" s="19"/>
+      <c r="BA68" s="52"/>
+    </row>
+    <row r="69" spans="34:53" x14ac:dyDescent="0.2">
+      <c r="AZ69" s="19"/>
+      <c r="BA69" s="52"/>
+    </row>
+    <row r="70" spans="34:53" x14ac:dyDescent="0.2">
+      <c r="AZ70" s="19"/>
+      <c r="BA70" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raw data/Jan_2019.xlsx
+++ b/Raw data/Jan_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F1738-7D6E-EF40-9ED6-10DC4D65D5C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6773C377-1762-4F44-BD2F-3839BCCE8E9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{0C37DF05-7FDA-B342-9691-799E7F642A94}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16260" xr2:uid="{0C37DF05-7FDA-B342-9691-799E7F642A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1524,8 +1524,8 @@
   <dimension ref="A1:GQ67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN28" sqref="BN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6984,7 +6984,9 @@
       <c r="BM27" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="BN27" s="28"/>
+      <c r="BN27" s="28">
+        <v>24</v>
+      </c>
       <c r="BO27" s="23"/>
       <c r="BP27" s="23"/>
       <c r="BQ27" s="23"/>
@@ -7192,7 +7194,9 @@
       <c r="BM28" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="BN28" s="37"/>
+      <c r="BN28" s="37">
+        <v>1</v>
+      </c>
       <c r="BO28" s="39"/>
       <c r="BP28" s="23"/>
       <c r="BQ28" s="23"/>
@@ -8040,7 +8044,9 @@
       <c r="BM32" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="BN32" s="28"/>
+      <c r="BN32" s="28">
+        <v>90</v>
+      </c>
       <c r="BO32" s="23"/>
       <c r="BP32" s="23"/>
       <c r="BQ32" s="23"/>

--- a/Raw data/Jan_2019.xlsx
+++ b/Raw data/Jan_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB4F0B-DA64-3A48-9BB1-69D2C5828EFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59B204-3F05-4648-9B19-379AD444ED1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16260" xr2:uid="{0C37DF05-7FDA-B342-9691-799E7F642A94}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0C37DF05-7FDA-B342-9691-799E7F642A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Mohammad Dastgheib</author>
-    <author>mohammad dastgheib</author>
   </authors>
   <commentList>
     <comment ref="A8" authorId="0" shapeId="0" xr:uid="{84A888FE-388D-4740-8181-C77E175A77EC}">
@@ -136,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD57" authorId="1" shapeId="0" xr:uid="{13ED433C-EBFB-6D42-8C81-4423021298E0}">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{C9F6219C-D0AC-CE4C-B063-6AA27E3ECE13}">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mohammad dastgheib:</t>
+          <t>Mohammad Dastgheib:</t>
         </r>
         <r>
           <rPr>
@@ -165,50 +164,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">These values are a little odd.
+          <t xml:space="preserve">outlier 
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Even considering the fact that the experiment ran in the morning, the results are interesting.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD58" authorId="1" shapeId="0" xr:uid="{6D120D75-C4C0-1542-8643-1618D1AF8AA6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mohammad dastgheib:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Why they are decimal? Usually, they are integers.</t>
         </r>
       </text>
     </comment>
@@ -217,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="202">
   <si>
     <t>Date</t>
   </si>
@@ -811,6 +768,18 @@
   </si>
   <si>
     <t>#######</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>AM7</t>
+  </si>
+  <si>
+    <t>Feb. 14, 2017</t>
+  </si>
+  <si>
+    <t>Feb. 28,2017</t>
   </si>
 </sst>
 </file>
@@ -930,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1270,6 +1239,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EEF925-A145-1E4C-BE46-D057DDAEEF7F}">
-  <dimension ref="A1:GQ70"/>
+  <dimension ref="A1:GQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV64" sqref="AV64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6923,7 +6900,7 @@
         <v>40</v>
       </c>
       <c r="Y27" s="24">
-        <f t="shared" ref="Y27:Y63" si="9">Z27/20</f>
+        <f t="shared" ref="Y27:Y65" si="9">Z27/20</f>
         <v>0.7</v>
       </c>
       <c r="Z27" s="28">
@@ -6933,18 +6910,18 @@
         <v>14</v>
       </c>
       <c r="AB27" s="24">
-        <f t="shared" ref="AB27:AB63" si="10">AA27/40</f>
+        <f t="shared" ref="AB27:AB65" si="10">AA27/40</f>
         <v>0.35</v>
       </c>
       <c r="AC27" s="24">
-        <f t="shared" ref="AC27:AC63" si="11">1-AB27</f>
+        <f t="shared" ref="AC27:AC65" si="11">1-AB27</f>
         <v>0.65</v>
       </c>
       <c r="AD27" s="28">
         <v>0</v>
       </c>
       <c r="AE27" s="24">
-        <f t="shared" ref="AE27:AE63" si="12">1-Y27</f>
+        <f t="shared" ref="AE27:AE65" si="12">1-Y27</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF27" s="28">
@@ -7010,7 +6987,7 @@
         <v>26</v>
       </c>
       <c r="BA27" s="30">
-        <f t="shared" ref="BA27:BA49" si="13">SUM(AT27,AW27,AX27,AY27,AZ27)</f>
+        <f t="shared" ref="BA27:BA51" si="13">SUM(AT27,AW27,AX27,AY27,AZ27)</f>
         <v>140</v>
       </c>
       <c r="BB27" s="28" t="s">
@@ -9839,7 +9816,7 @@
         <v>2.5</v>
       </c>
       <c r="AV40" s="29">
-        <f t="shared" ref="AV40:AV45" si="14">((AT40+AW40)-(AQ40+AP40))/(AQ40+AP40) *100</f>
+        <f t="shared" ref="AV40:AV47" si="14">((AT40+AW40)-(AQ40+AP40))/(AQ40+AP40) *100</f>
         <v>-14.102564102564102</v>
       </c>
       <c r="AW40" s="28">
@@ -11312,414 +11289,420 @@
       <c r="BN45" s="120"/>
       <c r="BO45" s="125"/>
     </row>
-    <row r="46" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="95">
-        <v>43062</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="100">
-        <v>0.6875</v>
-      </c>
-      <c r="E46" s="43" t="s">
+    <row r="46" spans="1:199" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="113">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E46" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="N46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q46" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="R46" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S46" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="T46" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U46" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="V46" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="W46" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="X46" s="45">
+      <c r="F46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="M46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="R46" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="S46" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="T46" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="U46" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="V46" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="W46" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="X46" s="120">
+        <v>58</v>
+      </c>
+      <c r="Y46" s="114">
+        <f t="shared" si="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="Z46" s="114">
+        <v>19</v>
+      </c>
+      <c r="AA46" s="120">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="114">
+        <f t="shared" si="10"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC46" s="114">
+        <f t="shared" si="11"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD46" s="120">
+        <v>18</v>
+      </c>
+      <c r="AE46" s="114">
+        <f t="shared" si="12"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AF46" s="120">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="120">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="120">
+        <v>21</v>
+      </c>
+      <c r="AI46" s="120">
+        <v>29</v>
+      </c>
+      <c r="AJ46" s="120">
+        <v>26</v>
+      </c>
+      <c r="AK46" s="120">
+        <v>26</v>
+      </c>
+      <c r="AL46" s="120">
+        <v>22</v>
+      </c>
+      <c r="AM46" s="120">
+        <v>32</v>
+      </c>
+      <c r="AN46" s="120">
+        <v>24</v>
+      </c>
+      <c r="AO46" s="120">
+        <v>32</v>
+      </c>
+      <c r="AP46" s="120">
+        <v>35</v>
+      </c>
+      <c r="AQ46" s="120">
+        <v>29</v>
+      </c>
+      <c r="AR46" s="120">
+        <v>3</v>
+      </c>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="120">
+        <v>36</v>
+      </c>
+      <c r="AU46" s="120">
+        <v>3</v>
+      </c>
+      <c r="AV46" s="121">
+        <f t="shared" si="14"/>
+        <v>7.8125</v>
+      </c>
+      <c r="AW46" s="120">
+        <v>33</v>
+      </c>
+      <c r="AX46" s="120">
+        <v>31</v>
+      </c>
+      <c r="AY46" s="120">
+        <v>27</v>
+      </c>
+      <c r="AZ46" s="120">
+        <v>33</v>
+      </c>
+      <c r="BA46" s="122">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="BB46" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC46" s="118">
+        <v>18</v>
+      </c>
+      <c r="BD46" s="118">
+        <v>13</v>
+      </c>
+      <c r="BE46" s="118">
+        <v>20</v>
+      </c>
+      <c r="BF46" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG46" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH46" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI46" s="123">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="BJ46" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK46" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL46" s="124"/>
+      <c r="BM46" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN46" s="120"/>
+      <c r="BO46" s="125"/>
+    </row>
+    <row r="47" spans="1:199" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="113">
+        <v>0.75</v>
+      </c>
+      <c r="E47" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="N47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="R47" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="S47" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="T47" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="U47" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="V47" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="W47" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="X47" s="120">
+        <v>32</v>
+      </c>
+      <c r="Y47" s="114">
+        <f t="shared" si="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z47" s="114">
+        <v>11</v>
+      </c>
+      <c r="AA47" s="120">
+        <v>19</v>
+      </c>
+      <c r="AB47" s="114">
+        <f t="shared" si="10"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AC47" s="114">
+        <f t="shared" si="11"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AD47" s="120">
+        <v>-8</v>
+      </c>
+      <c r="AE47" s="114">
+        <f t="shared" si="12"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AF47" s="120">
+        <v>8</v>
+      </c>
+      <c r="AG47" s="120">
+        <v>11</v>
+      </c>
+      <c r="AH47" s="120">
+        <v>28</v>
+      </c>
+      <c r="AI47" s="120">
+        <v>34</v>
+      </c>
+      <c r="AJ47" s="120">
+        <v>33</v>
+      </c>
+      <c r="AK47" s="120">
+        <v>33</v>
+      </c>
+      <c r="AL47" s="120">
+        <v>29</v>
+      </c>
+      <c r="AM47" s="120">
+        <v>37</v>
+      </c>
+      <c r="AN47" s="120">
+        <v>40</v>
+      </c>
+      <c r="AO47" s="120">
+        <v>62</v>
+      </c>
+      <c r="AP47" s="120">
+        <v>45</v>
+      </c>
+      <c r="AQ47" s="120">
+        <v>47</v>
+      </c>
+      <c r="AR47" s="120">
+        <v>4</v>
+      </c>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="120">
+        <v>86</v>
+      </c>
+      <c r="AU47" s="120">
+        <v>6</v>
+      </c>
+      <c r="AV47" s="121">
+        <f t="shared" si="14"/>
+        <v>53.260869565217398</v>
+      </c>
+      <c r="AW47" s="120">
+        <v>55</v>
+      </c>
+      <c r="AX47" s="120">
+        <v>53</v>
+      </c>
+      <c r="AY47" s="120">
+        <v>102</v>
+      </c>
+      <c r="AZ47" s="120">
+        <v>51</v>
+      </c>
+      <c r="BA47" s="122">
+        <f t="shared" si="13"/>
+        <v>347</v>
+      </c>
+      <c r="BB47" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC47" s="118">
+        <v>6</v>
+      </c>
+      <c r="BD47" s="118">
+        <v>7</v>
+      </c>
+      <c r="BE47" s="118">
+        <v>20</v>
+      </c>
+      <c r="BF47" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="45">
-        <f t="shared" si="9"/>
-        <v>0.85</v>
-      </c>
-      <c r="Z46" s="45">
-        <v>17</v>
-      </c>
-      <c r="AA46" s="45">
-        <v>3</v>
-      </c>
-      <c r="AB46" s="45">
-        <f t="shared" si="10"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC46" s="45">
-        <f t="shared" si="11"/>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="AD46" s="45">
-        <v>14</v>
-      </c>
-      <c r="AE46" s="45">
-        <f t="shared" si="12"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="AF46" s="45">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="45">
-        <v>2</v>
-      </c>
-      <c r="AH46" s="45">
-        <v>20</v>
-      </c>
-      <c r="AI46" s="45">
-        <v>20</v>
-      </c>
-      <c r="AJ46" s="45">
-        <v>26</v>
-      </c>
-      <c r="AK46" s="45">
-        <v>32</v>
-      </c>
-      <c r="AL46" s="45">
-        <v>35</v>
-      </c>
-      <c r="AM46" s="45">
-        <v>31</v>
-      </c>
-      <c r="AN46" s="45">
-        <v>38</v>
-      </c>
-      <c r="AO46" s="45">
-        <v>24</v>
-      </c>
-      <c r="AP46" s="45">
-        <v>34</v>
-      </c>
-      <c r="AQ46" s="45">
-        <v>42</v>
-      </c>
-      <c r="AR46" s="45">
-        <v>4</v>
-      </c>
-      <c r="AS46" s="15"/>
-      <c r="AT46" s="45">
-        <v>43</v>
-      </c>
-      <c r="AU46" s="45">
-        <v>4</v>
-      </c>
-      <c r="AV46" s="48">
-        <f t="shared" ref="AV46:AV63" si="15">((AT46+AW46)-(AQ46+AP46))/(AQ46+AP46) *100</f>
-        <v>14.473684210526317</v>
-      </c>
-      <c r="AW46" s="45">
-        <v>44</v>
-      </c>
-      <c r="AX46" s="45">
-        <v>34</v>
-      </c>
-      <c r="AY46" s="45">
-        <v>34</v>
-      </c>
-      <c r="AZ46" s="45">
-        <v>42</v>
-      </c>
-      <c r="BA46" s="49">
-        <f t="shared" si="13"/>
+      <c r="BG47" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH47" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="BB46" s="45">
-        <v>34</v>
-      </c>
-      <c r="BC46" s="49">
-        <v>2</v>
-      </c>
-      <c r="BD46" s="49">
-        <v>1</v>
-      </c>
-      <c r="BE46" s="49">
-        <v>30</v>
-      </c>
-      <c r="BF46" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG46" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH46" s="50">
-        <v>0</v>
-      </c>
-      <c r="BI46" s="50">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="BJ46" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK46" s="45"/>
-      <c r="BL46" s="63"/>
-      <c r="BM46" s="45" t="s">
+      <c r="BI47" s="123">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ47" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK47" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL47" s="124"/>
+      <c r="BM47" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="BN46" s="45"/>
-    </row>
-    <row r="47" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="95">
-        <v>43080</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="100">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="N47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="O47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="R47" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S47" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="T47" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U47" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="V47" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="W47" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="X47" s="45">
-        <v>48</v>
-      </c>
-      <c r="Y47" s="45">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="Z47" s="45">
-        <v>13</v>
-      </c>
-      <c r="AA47" s="45">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="45">
-        <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="AC47" s="45">
-        <f t="shared" si="11"/>
-        <v>0.875</v>
-      </c>
-      <c r="AD47" s="45">
-        <v>8</v>
-      </c>
-      <c r="AE47" s="45">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="AF47" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="45">
-        <v>5</v>
-      </c>
-      <c r="AH47" s="45">
-        <v>25</v>
-      </c>
-      <c r="AI47" s="45">
-        <v>64</v>
-      </c>
-      <c r="AJ47" s="45">
-        <v>81</v>
-      </c>
-      <c r="AK47" s="45">
-        <v>110</v>
-      </c>
-      <c r="AL47" s="45">
-        <v>75</v>
-      </c>
-      <c r="AM47" s="45">
-        <v>127</v>
-      </c>
-      <c r="AN47" s="45">
-        <v>103</v>
-      </c>
-      <c r="AO47" s="45">
-        <v>97</v>
-      </c>
-      <c r="AP47" s="45">
-        <v>125</v>
-      </c>
-      <c r="AQ47" s="45">
-        <v>96</v>
-      </c>
-      <c r="AR47" s="45">
-        <v>6</v>
-      </c>
-      <c r="AS47" s="15"/>
-      <c r="AT47" s="45">
-        <v>121</v>
-      </c>
-      <c r="AU47" s="45">
-        <v>11</v>
-      </c>
-      <c r="AV47" s="48">
-        <f t="shared" si="15"/>
-        <v>23.981900452488688</v>
-      </c>
-      <c r="AW47" s="45">
-        <v>153</v>
-      </c>
-      <c r="AX47" s="45">
-        <v>209</v>
-      </c>
-      <c r="AY47" s="45">
-        <v>115</v>
-      </c>
-      <c r="AZ47" s="45">
-        <v>172</v>
-      </c>
-      <c r="BA47" s="49">
-        <f t="shared" si="13"/>
-        <v>770</v>
-      </c>
-      <c r="BB47" s="45">
-        <v>42</v>
-      </c>
-      <c r="BC47" s="49">
-        <v>16</v>
-      </c>
-      <c r="BD47" s="49">
-        <v>18</v>
-      </c>
-      <c r="BE47" s="49">
-        <v>21</v>
-      </c>
-      <c r="BF47" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG47" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH47" s="50">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="BI47" s="50">
-        <v>0.375</v>
-      </c>
-      <c r="BJ47" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK47" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL47" s="63"/>
-      <c r="BM47" s="45"/>
-      <c r="BN47" s="45"/>
+      <c r="BN47" s="120"/>
+      <c r="BO47" s="125"/>
     </row>
     <row r="48" spans="1:199" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B48" s="95">
-        <v>43130</v>
+        <v>43062</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D48" s="100">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>71</v>
@@ -11779,110 +11762,110 @@
         <v>53</v>
       </c>
       <c r="X48" s="45">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Y48" s="45">
         <f t="shared" si="9"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="Z48" s="45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA48" s="45">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB48" s="45">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC48" s="45">
         <f t="shared" si="11"/>
-        <v>0.7</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AD48" s="45">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AE48" s="45">
         <f t="shared" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AF48" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="45">
         <v>2</v>
       </c>
-      <c r="AG48" s="45">
-        <v>10</v>
-      </c>
       <c r="AH48" s="45">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI48" s="45">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AJ48" s="45">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="AK48" s="45">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AL48" s="45">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AM48" s="45">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="AN48" s="45">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO48" s="45">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="AP48" s="45">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="AQ48" s="45">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AR48" s="45">
         <v>4</v>
       </c>
       <c r="AS48" s="15"/>
       <c r="AT48" s="45">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="AU48" s="45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV48" s="48">
-        <f t="shared" si="15"/>
-        <v>31.05590062111801</v>
+        <f t="shared" ref="AV48:AV65" si="15">((AT48+AW48)-(AQ48+AP48))/(AQ48+AP48) *100</f>
+        <v>14.473684210526317</v>
       </c>
       <c r="AW48" s="45">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AX48" s="45">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="AY48" s="45">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="AZ48" s="45">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="BA48" s="49">
         <f t="shared" si="13"/>
-        <v>529</v>
+        <v>197</v>
       </c>
       <c r="BB48" s="45">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="BC48" s="49">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BD48" s="49">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="BE48" s="49">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BF48" s="45" t="s">
         <v>58</v>
@@ -11891,35 +11874,33 @@
         <v>55</v>
       </c>
       <c r="BH48" s="50">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="BI48" s="50">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ48" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK48" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK48" s="45"/>
+      <c r="BL48" s="63"/>
+      <c r="BM48" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BL48" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM48" s="45"/>
       <c r="BN48" s="45"/>
     </row>
     <row r="49" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" s="95">
-        <v>43133</v>
+        <v>43080</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D49" s="100">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>71</v>
@@ -11979,110 +11960,110 @@
         <v>53</v>
       </c>
       <c r="X49" s="45">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Y49" s="45">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="Z49" s="45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA49" s="45">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB49" s="45">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="AC49" s="45">
         <f t="shared" si="11"/>
-        <v>0.7</v>
+        <v>0.875</v>
       </c>
       <c r="AD49" s="45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE49" s="45">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AF49" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="45">
         <v>5</v>
       </c>
-      <c r="AG49" s="45">
-        <v>7</v>
-      </c>
       <c r="AH49" s="45">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AI49" s="45">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AJ49" s="45">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="AK49" s="45">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AL49" s="45">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AM49" s="45">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="AN49" s="45">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="AO49" s="45">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="AP49" s="45">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="AQ49" s="45">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="AR49" s="45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS49" s="15"/>
       <c r="AT49" s="45">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="AU49" s="45">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV49" s="48">
         <f t="shared" si="15"/>
-        <v>8.6419753086419746</v>
+        <v>23.981900452488688</v>
       </c>
       <c r="AW49" s="45">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="AX49" s="45">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AY49" s="45">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="AZ49" s="45">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="BA49" s="49">
         <f t="shared" si="13"/>
-        <v>228</v>
+        <v>770</v>
       </c>
       <c r="BB49" s="45">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BC49" s="49">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD49" s="49">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BE49" s="49">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="BF49" s="45" t="s">
         <v>58</v>
@@ -12091,35 +12072,33 @@
         <v>55</v>
       </c>
       <c r="BH49" s="50">
-        <v>0.9375</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="BI49" s="50">
-        <v>0.28125</v>
+        <v>0.375</v>
       </c>
       <c r="BJ49" s="45" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="BK49" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BL49" s="63" t="s">
-        <v>121</v>
-      </c>
+      <c r="BL49" s="63"/>
       <c r="BM49" s="45"/>
       <c r="BN49" s="45"/>
     </row>
     <row r="50" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B50" s="95">
-        <v>43136</v>
+        <v>43130</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D50" s="100">
-        <v>0.54166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E50" s="43" t="s">
         <v>71</v>
@@ -12179,107 +12158,107 @@
         <v>53</v>
       </c>
       <c r="X50" s="45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y50" s="45">
         <f t="shared" si="9"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Z50" s="45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA50" s="45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB50" s="45">
         <f t="shared" si="10"/>
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="AC50" s="45">
         <f t="shared" si="11"/>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="AD50" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE50" s="45">
         <f t="shared" si="12"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AF50" s="45">
         <v>2</v>
       </c>
       <c r="AG50" s="45">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH50" s="45">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="AI50" s="45">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ50" s="45">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AK50" s="45">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="AL50" s="45">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="AM50" s="45">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="AN50" s="45">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AO50" s="45">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="AP50" s="45">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="AQ50" s="45">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="AR50" s="45">
         <v>4</v>
       </c>
       <c r="AS50" s="15"/>
       <c r="AT50" s="45">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="AU50" s="45">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AV50" s="48">
         <f t="shared" si="15"/>
-        <v>-9.1954022988505741</v>
+        <v>31.05590062111801</v>
       </c>
       <c r="AW50" s="45">
+        <v>95</v>
+      </c>
+      <c r="AX50" s="45">
+        <v>106</v>
+      </c>
+      <c r="AY50" s="45">
+        <v>77</v>
+      </c>
+      <c r="AZ50" s="45">
+        <v>135</v>
+      </c>
+      <c r="BA50" s="49">
+        <f t="shared" si="13"/>
+        <v>529</v>
+      </c>
+      <c r="BB50" s="45">
         <v>46</v>
       </c>
-      <c r="AX50" s="45">
-        <v>34</v>
-      </c>
-      <c r="AY50" s="45">
-        <v>65</v>
-      </c>
-      <c r="AZ50" s="45">
-        <v>64</v>
-      </c>
-      <c r="BA50" s="49">
-        <f t="shared" ref="BA50:BA63" si="16">SUM(AT50,AW50,AX50,AY50,AZ50)</f>
-        <v>242</v>
-      </c>
-      <c r="BB50" s="45">
-        <v>40</v>
-      </c>
       <c r="BC50" s="49">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD50" s="49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BE50" s="49">
         <v>19</v>
@@ -12291,31 +12270,35 @@
         <v>55</v>
       </c>
       <c r="BH50" s="50">
-        <v>0.97916666666666663</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="BI50" s="50">
-        <v>0.32291666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="BJ50" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="BK50" s="45"/>
-      <c r="BL50" s="64"/>
+      <c r="BK50" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL50" s="63" t="s">
+        <v>119</v>
+      </c>
       <c r="BM50" s="45"/>
       <c r="BN50" s="45"/>
     </row>
     <row r="51" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B51" s="95">
-        <v>43138</v>
+        <v>43133</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="100">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="43" t="s">
         <v>71</v>
@@ -12375,110 +12358,110 @@
         <v>53</v>
       </c>
       <c r="X51" s="45">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y51" s="45">
         <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Z51" s="45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA51" s="45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB51" s="45">
         <f t="shared" si="10"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AC51" s="45">
         <f t="shared" si="11"/>
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="AD51" s="45">
         <v>0</v>
       </c>
       <c r="AE51" s="45">
         <f t="shared" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="AF51" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG51" s="45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH51" s="45">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AI51" s="45">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="AJ51" s="45">
+        <v>33</v>
+      </c>
+      <c r="AK51" s="45">
+        <v>40</v>
+      </c>
+      <c r="AL51" s="45">
         <v>37</v>
       </c>
-      <c r="AK51" s="45">
+      <c r="AM51" s="45">
         <v>38</v>
       </c>
-      <c r="AL51" s="45">
-        <v>34</v>
-      </c>
-      <c r="AM51" s="45">
-        <v>39</v>
-      </c>
       <c r="AN51" s="45">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO51" s="45">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="AP51" s="45">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AQ51" s="45">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR51" s="45">
         <v>3</v>
       </c>
       <c r="AS51" s="15"/>
       <c r="AT51" s="45">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AU51" s="45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV51" s="48">
         <f t="shared" si="15"/>
-        <v>16.470588235294116</v>
+        <v>8.6419753086419746</v>
       </c>
       <c r="AW51" s="45">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AX51" s="45">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AY51" s="45">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ51" s="45">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="BA51" s="49">
-        <f t="shared" si="16"/>
-        <v>242</v>
+        <f t="shared" si="13"/>
+        <v>228</v>
       </c>
       <c r="BB51" s="45">
         <v>41</v>
       </c>
       <c r="BC51" s="49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD51" s="49">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BE51" s="49">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BF51" s="45" t="s">
         <v>58</v>
@@ -12487,40 +12470,35 @@
         <v>55</v>
       </c>
       <c r="BH51" s="50">
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="BI51" s="50">
-        <v>0.33333333333333331</v>
+        <v>0.28125</v>
       </c>
       <c r="BJ51" s="45" t="s">
         <v>95</v>
       </c>
       <c r="BK51" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL51" s="63"/>
-      <c r="BM51" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BN51" s="45">
-        <v>24</v>
-      </c>
-      <c r="BO51" s="44" t="s">
-        <v>124</v>
-      </c>
+      <c r="BL51" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM51" s="45"/>
+      <c r="BN51" s="45"/>
     </row>
     <row r="52" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B52" s="95">
-        <v>43139</v>
+        <v>43136</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="100">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E52" s="43" t="s">
         <v>71</v>
@@ -12580,110 +12558,110 @@
         <v>53</v>
       </c>
       <c r="X52" s="45">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Y52" s="45">
         <f t="shared" si="9"/>
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="Z52" s="45">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AA52" s="45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB52" s="45">
         <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AC52" s="45">
         <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AD52" s="45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE52" s="45">
         <f t="shared" si="12"/>
-        <v>0.55000000000000004</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="AF52" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG52" s="45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH52" s="45">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AI52" s="45">
+        <v>35</v>
+      </c>
+      <c r="AJ52" s="45">
+        <v>34</v>
+      </c>
+      <c r="AK52" s="45">
+        <v>33</v>
+      </c>
+      <c r="AL52" s="45">
+        <v>37</v>
+      </c>
+      <c r="AM52" s="45">
         <v>32</v>
       </c>
-      <c r="AJ52" s="45">
-        <v>35</v>
-      </c>
-      <c r="AK52" s="45">
-        <v>25</v>
-      </c>
-      <c r="AL52" s="45">
-        <v>25</v>
-      </c>
-      <c r="AM52" s="45">
-        <v>47</v>
-      </c>
       <c r="AN52" s="45">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AO52" s="45">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AP52" s="45">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AQ52" s="45">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AR52" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS52" s="15"/>
       <c r="AT52" s="45">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AU52" s="45">
         <v>3</v>
       </c>
       <c r="AV52" s="48">
         <f t="shared" si="15"/>
-        <v>34.782608695652172</v>
+        <v>-9.1954022988505741</v>
       </c>
       <c r="AW52" s="45">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AX52" s="45">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AY52" s="45">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AZ52" s="45">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="BA52" s="49">
-        <f t="shared" si="16"/>
-        <v>196</v>
+        <f t="shared" ref="BA52:BA65" si="16">SUM(AT52,AW52,AX52,AY52,AZ52)</f>
+        <v>242</v>
       </c>
       <c r="BB52" s="45">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="BC52" s="49">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD52" s="49">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BE52" s="49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BF52" s="45" t="s">
         <v>58</v>
@@ -12692,41 +12670,34 @@
         <v>55</v>
       </c>
       <c r="BH52" s="50">
-        <v>0.9375</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="BI52" s="50">
-        <v>0.29166666666666669</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="BJ52" s="45" t="s">
         <v>56</v>
       </c>
       <c r="BK52" s="45"/>
-      <c r="BL52" s="63"/>
-      <c r="BM52" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN52" s="45">
-        <v>120</v>
-      </c>
-      <c r="BO52" s="44" t="s">
-        <v>126</v>
-      </c>
+      <c r="BL52" s="64"/>
+      <c r="BM52" s="45"/>
+      <c r="BN52" s="45"/>
     </row>
     <row r="53" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B53" s="95">
-        <v>43145</v>
+        <v>43138</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D53" s="100">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="F53" s="75" t="s">
         <v>53</v>
@@ -12780,113 +12751,113 @@
         <v>53</v>
       </c>
       <c r="W53" s="42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X53" s="45">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Y53" s="45">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z53" s="45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA53" s="45">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB53" s="45">
         <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="AC53" s="45">
         <f t="shared" si="11"/>
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AD53" s="45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="45">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="AF53" s="45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG53" s="45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH53" s="45">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI53" s="45">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AJ53" s="45">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AK53" s="45">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AL53" s="45">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM53" s="45">
+        <v>39</v>
+      </c>
+      <c r="AN53" s="45">
+        <v>39</v>
+      </c>
+      <c r="AO53" s="45">
+        <v>32</v>
+      </c>
+      <c r="AP53" s="45">
+        <v>44</v>
+      </c>
+      <c r="AQ53" s="45">
         <v>41</v>
       </c>
-      <c r="AN53" s="45">
-        <v>34</v>
-      </c>
-      <c r="AO53" s="45">
-        <v>43</v>
-      </c>
-      <c r="AP53" s="45">
-        <v>32</v>
-      </c>
-      <c r="AQ53" s="45">
-        <v>36</v>
-      </c>
       <c r="AR53" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS53" s="15"/>
       <c r="AT53" s="45">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AU53" s="45">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AV53" s="48">
         <f t="shared" si="15"/>
-        <v>8.8235294117647065</v>
+        <v>16.470588235294116</v>
       </c>
       <c r="AW53" s="45">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AX53" s="45">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AY53" s="45">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AZ53" s="45">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BA53" s="49">
         <f t="shared" si="16"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="BB53" s="45">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BC53" s="49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD53" s="49">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BE53" s="49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BF53" s="45" t="s">
         <v>58</v>
@@ -12895,37 +12866,42 @@
         <v>55</v>
       </c>
       <c r="BH53" s="50">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="BI53" s="50">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BJ53" s="45" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="BK53" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL53" s="63"/>
+      <c r="BM53" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BL53" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="BM53" s="45"/>
-      <c r="BN53" s="45"/>
+      <c r="BN53" s="45">
+        <v>24</v>
+      </c>
+      <c r="BO53" s="44" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="54" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B54" s="95">
-        <v>43132</v>
+        <v>43139</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="100">
-        <v>0.75</v>
-      </c>
-      <c r="E54" s="42" t="s">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>71</v>
       </c>
       <c r="F54" s="75" t="s">
@@ -12983,107 +12959,107 @@
         <v>53</v>
       </c>
       <c r="X54" s="45">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y54" s="45">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z54" s="45">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA54" s="45">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB54" s="45">
         <f t="shared" si="10"/>
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="AC54" s="45">
         <f t="shared" si="11"/>
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="AD54" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="45">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF54" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG54" s="45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH54" s="45">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AI54" s="45">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AJ54" s="45">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AK54" s="45">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL54" s="45">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM54" s="45">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="AN54" s="45">
+        <v>34</v>
+      </c>
+      <c r="AO54" s="45">
+        <v>37</v>
+      </c>
+      <c r="AP54" s="45">
+        <v>36</v>
+      </c>
+      <c r="AQ54" s="45">
         <v>33</v>
       </c>
-      <c r="AO54" s="45">
-        <v>31</v>
-      </c>
-      <c r="AP54" s="45">
-        <v>31</v>
-      </c>
-      <c r="AQ54" s="45">
-        <v>23</v>
-      </c>
       <c r="AR54" s="45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS54" s="15"/>
       <c r="AT54" s="45">
         <v>41</v>
       </c>
       <c r="AU54" s="45">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AV54" s="48">
         <f t="shared" si="15"/>
-        <v>46.296296296296298</v>
+        <v>34.782608695652172</v>
       </c>
       <c r="AW54" s="45">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AX54" s="45">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AY54" s="45">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AZ54" s="45">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="BA54" s="49">
         <f t="shared" si="16"/>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BB54" s="45">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BC54" s="49">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD54" s="49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BE54" s="49">
         <v>21</v>
@@ -13095,26 +13071,29 @@
         <v>55</v>
       </c>
       <c r="BH54" s="50">
-        <v>0.48958333333333331</v>
+        <v>0.9375</v>
       </c>
       <c r="BI54" s="50">
-        <v>0.35416666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="BJ54" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK54" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK54" s="45"/>
+      <c r="BL54" s="63"/>
+      <c r="BM54" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BL54" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM54" s="45"/>
-      <c r="BN54" s="45"/>
+      <c r="BN54" s="45">
+        <v>120</v>
+      </c>
+      <c r="BO54" s="44" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="55" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B55" s="95">
         <v>43145</v>
@@ -13123,10 +13102,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="100">
-        <v>0.625</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>71</v>
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>128</v>
       </c>
       <c r="F55" s="75" t="s">
         <v>53</v>
@@ -13183,122 +13162,122 @@
         <v>51</v>
       </c>
       <c r="X55" s="45">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Y55" s="45">
         <f t="shared" si="9"/>
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Z55" s="45">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AA55" s="45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB55" s="45">
         <f t="shared" si="10"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AC55" s="45">
         <f t="shared" si="11"/>
-        <v>0.92500000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="AD55" s="45">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AE55" s="45">
         <f t="shared" si="12"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.5</v>
       </c>
       <c r="AF55" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG55" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH55" s="45">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI55" s="45">
         <v>40</v>
       </c>
       <c r="AJ55" s="45">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AK55" s="45">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="AL55" s="45">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM55" s="45">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AN55" s="45">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="AO55" s="45">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AP55" s="45">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="AQ55" s="45">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AR55" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS55" s="15"/>
       <c r="AT55" s="45">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AU55" s="45">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AV55" s="48">
         <f t="shared" si="15"/>
-        <v>2.2222222222222223</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="AW55" s="45">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="AX55" s="45">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="AY55" s="45">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="AZ55" s="45">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="BA55" s="49">
         <f t="shared" si="16"/>
-        <v>382</v>
+        <v>217</v>
       </c>
       <c r="BB55" s="45">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="BC55" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD55" s="49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BE55" s="49">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BF55" s="45" t="s">
         <v>58</v>
       </c>
       <c r="BG55" s="45" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="BH55" s="50">
-        <v>0.10416666666666667</v>
+        <v>0</v>
       </c>
       <c r="BI55" s="50">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="BJ55" s="45" t="s">
         <v>129</v>
@@ -13306,28 +13285,26 @@
       <c r="BK55" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BL55" s="64">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="BM55" s="45" t="s">
-        <v>59</v>
-      </c>
+      <c r="BL55" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM55" s="45"/>
       <c r="BN55" s="45"/>
     </row>
     <row r="56" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
-        <v>154</v>
+      <c r="A56" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="B56" s="95">
-        <v>43417</v>
-      </c>
-      <c r="C56" s="45" t="s">
+        <v>43132</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D56" s="100">
-        <v>0.625</v>
-      </c>
-      <c r="E56" s="45" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="E56" s="42" t="s">
         <v>71</v>
       </c>
       <c r="F56" s="75" t="s">
@@ -13381,114 +13358,114 @@
       <c r="V56" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="W56" s="45" t="s">
-        <v>51</v>
+      <c r="W56" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="X56" s="45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y56" s="45">
         <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="Z56" s="45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA56" s="45">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AB56" s="45">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="AC56" s="45">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="AD56" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE56" s="45">
         <f t="shared" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="AF56" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG56" s="45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AH56" s="45">
+        <v>31</v>
+      </c>
+      <c r="AI56" s="45">
+        <v>41</v>
+      </c>
+      <c r="AJ56" s="45">
         <v>26</v>
       </c>
-      <c r="AI56" s="45">
-        <v>23</v>
-      </c>
-      <c r="AJ56" s="45">
-        <v>32</v>
-      </c>
       <c r="AK56" s="45">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL56" s="45">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AM56" s="45">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AN56" s="45">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AO56" s="45">
         <v>31</v>
       </c>
       <c r="AP56" s="45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ56" s="45">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AR56" s="45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS56" s="15"/>
       <c r="AT56" s="45">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AU56" s="45">
         <v>3.5</v>
       </c>
       <c r="AV56" s="48">
         <f t="shared" si="15"/>
-        <v>9.2307692307692317</v>
+        <v>46.296296296296298</v>
       </c>
       <c r="AW56" s="45">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AX56" s="45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AY56" s="45">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AZ56" s="45">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="BA56" s="49">
         <f t="shared" si="16"/>
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="BB56" s="45">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="BC56" s="49">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BD56" s="49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BE56" s="49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF56" s="45" t="s">
         <v>58</v>
@@ -13496,457 +13473,445 @@
       <c r="BG56" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="BH56" s="76">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="BI56" s="76">
+      <c r="BH56" s="50">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="BI56" s="50">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="BJ56" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK56" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL56" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM56" s="45"/>
+      <c r="BN56" s="45"/>
+    </row>
+    <row r="57" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="95">
+        <v>43145</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="100">
+        <v>0.625</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="M57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="N57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="O57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="R57" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S57" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="T57" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U57" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="V57" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="W57" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="X57" s="45">
+        <v>55</v>
+      </c>
+      <c r="Y57" s="45">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z57" s="45">
+        <v>18</v>
+      </c>
+      <c r="AA57" s="45">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="45">
+        <f t="shared" si="10"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC57" s="45">
+        <f t="shared" si="11"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AD57" s="45">
+        <v>15</v>
+      </c>
+      <c r="AE57" s="45">
+        <f t="shared" si="12"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AF57" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="45">
+        <v>3</v>
+      </c>
+      <c r="AH57" s="45">
+        <v>26</v>
+      </c>
+      <c r="AI57" s="45">
+        <v>40</v>
+      </c>
+      <c r="AJ57" s="45">
+        <v>37</v>
+      </c>
+      <c r="AK57" s="45">
+        <v>58</v>
+      </c>
+      <c r="AL57" s="45">
+        <v>55</v>
+      </c>
+      <c r="AM57" s="45">
+        <v>86</v>
+      </c>
+      <c r="AN57" s="45">
+        <v>58</v>
+      </c>
+      <c r="AO57" s="45">
+        <v>51</v>
+      </c>
+      <c r="AP57" s="45">
+        <v>61</v>
+      </c>
+      <c r="AQ57" s="45">
+        <v>74</v>
+      </c>
+      <c r="AR57" s="45">
+        <v>5</v>
+      </c>
+      <c r="AS57" s="15"/>
+      <c r="AT57" s="45">
+        <v>47</v>
+      </c>
+      <c r="AU57" s="45">
+        <v>4</v>
+      </c>
+      <c r="AV57" s="48">
+        <f t="shared" si="15"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AW57" s="45">
+        <v>91</v>
+      </c>
+      <c r="AX57" s="45">
+        <v>92</v>
+      </c>
+      <c r="AY57" s="45">
+        <v>87</v>
+      </c>
+      <c r="AZ57" s="45">
+        <v>65</v>
+      </c>
+      <c r="BA57" s="49">
+        <f t="shared" si="16"/>
+        <v>382</v>
+      </c>
+      <c r="BB57" s="45">
+        <v>48</v>
+      </c>
+      <c r="BC57" s="49">
+        <v>9</v>
+      </c>
+      <c r="BD57" s="49">
+        <v>14</v>
+      </c>
+      <c r="BE57" s="49">
+        <v>20</v>
+      </c>
+      <c r="BF57" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG57" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH57" s="50">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="BI57" s="50">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BJ56" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK56" s="45" t="s">
+      <c r="BJ57" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK57" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL57" s="64">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="BM57" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN57" s="45"/>
+    </row>
+    <row r="58" spans="1:67" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="95">
+        <v>43417</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="100">
+        <v>0.625</v>
+      </c>
+      <c r="E58" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="BL56" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM56" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN56" s="45">
-        <v>12</v>
-      </c>
-      <c r="BO56" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="101">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E57" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="H57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="I57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="L57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="M57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="O57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q57" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R57" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S57" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="T57" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="U57" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="V57" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W57" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="X57" s="77">
-        <v>48</v>
-      </c>
-      <c r="Y57" s="77">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="Z57" s="77">
-        <v>14</v>
-      </c>
-      <c r="AA57" s="77">
-        <v>6</v>
-      </c>
-      <c r="AB57" s="77">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
-      </c>
-      <c r="AC57" s="77">
-        <f t="shared" si="11"/>
-        <v>0.85</v>
-      </c>
-      <c r="AD57" s="77">
-        <v>8</v>
-      </c>
-      <c r="AE57" s="77">
-        <f t="shared" si="12"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AF57" s="77">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="77">
-        <v>5</v>
-      </c>
-      <c r="AH57" s="77">
-        <v>24</v>
-      </c>
-      <c r="AI57" s="77">
-        <v>30</v>
-      </c>
-      <c r="AJ57" s="77">
-        <v>37</v>
-      </c>
-      <c r="AK57" s="77">
-        <v>36</v>
-      </c>
-      <c r="AL57" s="77">
-        <v>32</v>
-      </c>
-      <c r="AM57" s="77">
-        <v>34</v>
-      </c>
-      <c r="AN57" s="77">
-        <v>31</v>
-      </c>
-      <c r="AO57" s="77">
-        <v>32</v>
-      </c>
-      <c r="AP57" s="77">
-        <v>34</v>
-      </c>
-      <c r="AQ57" s="77">
-        <v>33</v>
-      </c>
-      <c r="AR57" s="77">
-        <v>3</v>
-      </c>
-      <c r="AS57" s="15"/>
-      <c r="AT57" s="77">
-        <v>41</v>
-      </c>
-      <c r="AU57" s="77">
-        <v>3</v>
-      </c>
-      <c r="AV57" s="83">
-        <f t="shared" si="15"/>
-        <v>16.417910447761194</v>
-      </c>
-      <c r="AW57" s="77">
-        <v>37</v>
-      </c>
-      <c r="AX57" s="77">
-        <v>36</v>
-      </c>
-      <c r="AY57" s="77">
-        <v>43</v>
-      </c>
-      <c r="AZ57" s="77">
-        <v>37</v>
-      </c>
-      <c r="BA57" s="84">
-        <f t="shared" si="16"/>
-        <v>194</v>
-      </c>
-      <c r="BB57" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC57" s="77">
-        <v>8</v>
-      </c>
-      <c r="BD57" s="77">
-        <v>11</v>
-      </c>
-      <c r="BE57" s="84">
-        <v>26</v>
-      </c>
-      <c r="BF57" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG57" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH57" s="85">
-        <v>0.125</v>
-      </c>
-      <c r="BI57" s="85">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="BJ57" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK57" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL57" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM57" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN57" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO57" s="77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="101">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E58" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="H58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="L58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="O58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q58" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R58" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S58" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="T58" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="U58" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="V58" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W58" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="X58" s="77">
-        <v>40</v>
-      </c>
-      <c r="Y58" s="77">
+      <c r="F58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="M58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="N58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="O58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S58" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="T58" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U58" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="V58" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="W58" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="X58" s="45">
+        <v>44</v>
+      </c>
+      <c r="Y58" s="45">
         <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z58" s="77">
+      <c r="Z58" s="45">
         <v>11</v>
       </c>
-      <c r="AA58" s="77">
-        <v>11</v>
-      </c>
-      <c r="AB58" s="77">
+      <c r="AA58" s="45">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="45">
         <f t="shared" si="10"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AC58" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="AC58" s="45">
         <f t="shared" si="11"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="AD58" s="77">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="AD58" s="45">
+        <v>3</v>
+      </c>
+      <c r="AE58" s="45">
         <f t="shared" si="12"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="AF58" s="77">
+      <c r="AF58" s="45">
+        <v>3</v>
+      </c>
+      <c r="AG58" s="45">
+        <v>5</v>
+      </c>
+      <c r="AH58" s="45">
+        <v>26</v>
+      </c>
+      <c r="AI58" s="45">
+        <v>23</v>
+      </c>
+      <c r="AJ58" s="45">
+        <v>32</v>
+      </c>
+      <c r="AK58" s="45">
+        <v>32</v>
+      </c>
+      <c r="AL58" s="45">
+        <v>31</v>
+      </c>
+      <c r="AM58" s="45">
+        <v>29</v>
+      </c>
+      <c r="AN58" s="45">
+        <v>36</v>
+      </c>
+      <c r="AO58" s="45">
+        <v>31</v>
+      </c>
+      <c r="AP58" s="45">
+        <v>30</v>
+      </c>
+      <c r="AQ58" s="45">
+        <v>35</v>
+      </c>
+      <c r="AR58" s="45">
+        <v>3</v>
+      </c>
+      <c r="AS58" s="15"/>
+      <c r="AT58" s="45">
+        <v>38</v>
+      </c>
+      <c r="AU58" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="AV58" s="48">
+        <f t="shared" si="15"/>
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="AW58" s="45">
+        <v>33</v>
+      </c>
+      <c r="AX58" s="45">
+        <v>28</v>
+      </c>
+      <c r="AY58" s="45">
+        <v>45</v>
+      </c>
+      <c r="AZ58" s="45">
+        <v>35</v>
+      </c>
+      <c r="BA58" s="49">
+        <f t="shared" si="16"/>
+        <v>179</v>
+      </c>
+      <c r="BB58" s="45">
+        <v>32</v>
+      </c>
+      <c r="BC58" s="49">
         <v>1</v>
       </c>
-      <c r="AG58" s="77">
-        <v>10</v>
-      </c>
-      <c r="AH58" s="77">
-        <v>30</v>
-      </c>
-      <c r="AI58" s="77">
-        <v>33</v>
-      </c>
-      <c r="AJ58" s="77">
-        <v>47</v>
-      </c>
-      <c r="AK58" s="77">
-        <v>39</v>
-      </c>
-      <c r="AL58" s="77">
-        <v>40</v>
-      </c>
-      <c r="AM58" s="77">
-        <v>37</v>
-      </c>
-      <c r="AN58" s="77">
-        <v>35</v>
-      </c>
-      <c r="AO58" s="77">
-        <v>60</v>
-      </c>
-      <c r="AP58" s="77">
-        <v>35</v>
-      </c>
-      <c r="AQ58" s="77">
-        <v>54</v>
-      </c>
-      <c r="AR58" s="77">
-        <v>3.5</v>
-      </c>
-      <c r="AS58" s="15"/>
-      <c r="AT58" s="77">
-        <v>42</v>
-      </c>
-      <c r="AU58" s="77">
-        <v>3</v>
-      </c>
-      <c r="AV58" s="83">
-        <f t="shared" si="15"/>
-        <v>1.1235955056179776</v>
-      </c>
-      <c r="AW58" s="77">
-        <v>48</v>
-      </c>
-      <c r="AX58" s="77">
+      <c r="BD58" s="49">
+        <v>4</v>
+      </c>
+      <c r="BE58" s="49">
+        <v>20</v>
+      </c>
+      <c r="BF58" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG58" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AY58" s="77">
+      <c r="BH58" s="76">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="BI58" s="76">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BJ58" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK58" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL58" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM58" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AZ58" s="77">
-        <v>79</v>
-      </c>
-      <c r="BA58" s="84">
-        <f t="shared" si="16"/>
-        <v>283</v>
-      </c>
-      <c r="BB58" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC58" s="87">
-        <v>10</v>
-      </c>
-      <c r="BD58" s="87">
-        <v>14</v>
-      </c>
-      <c r="BE58" s="84">
-        <v>23</v>
-      </c>
-      <c r="BF58" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG58" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH58" s="85">
-        <v>0</v>
-      </c>
-      <c r="BI58" s="85">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="BJ58" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK58" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL58" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM58" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN58" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO58" s="77" t="s">
-        <v>53</v>
+      <c r="BN58" s="45">
+        <v>12</v>
+      </c>
+      <c r="BO58" s="44" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="77" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B59" s="88" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C59" s="77" t="s">
         <v>116</v>
       </c>
       <c r="D59" s="101">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E59" s="77" t="s">
         <v>71</v>
@@ -14006,128 +13971,128 @@
         <v>53</v>
       </c>
       <c r="X59" s="77">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Y59" s="77">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Z59" s="77">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA59" s="77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB59" s="77">
         <f t="shared" si="10"/>
-        <v>0.22500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="AC59" s="77">
         <f t="shared" si="11"/>
-        <v>0.77500000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="AD59" s="77">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AE59" s="77">
         <f t="shared" si="12"/>
-        <v>0.6</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AF59" s="77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG59" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH59" s="77">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI59" s="77">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ59" s="77">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AK59" s="77">
+        <v>36</v>
+      </c>
+      <c r="AL59" s="77">
+        <v>32</v>
+      </c>
+      <c r="AM59" s="77">
         <v>34</v>
       </c>
-      <c r="AL59" s="77">
-        <v>25</v>
-      </c>
-      <c r="AM59" s="77">
+      <c r="AN59" s="77">
+        <v>31</v>
+      </c>
+      <c r="AO59" s="77">
         <v>32</v>
       </c>
-      <c r="AN59" s="77">
+      <c r="AP59" s="77">
         <v>34</v>
       </c>
-      <c r="AO59" s="77">
-        <v>35</v>
-      </c>
-      <c r="AP59" s="77">
-        <v>32</v>
-      </c>
       <c r="AQ59" s="77">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AR59" s="77">
         <v>3</v>
       </c>
       <c r="AS59" s="15"/>
       <c r="AT59" s="77">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AU59" s="77">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AV59" s="83">
         <f t="shared" si="15"/>
-        <v>43.859649122807014</v>
+        <v>16.417910447761194</v>
       </c>
       <c r="AW59" s="77">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AX59" s="77">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AY59" s="77">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AZ59" s="77">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BA59" s="84">
         <f t="shared" si="16"/>
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="BB59" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="BC59" s="87">
+      <c r="BC59" s="77">
+        <v>8</v>
+      </c>
+      <c r="BD59" s="77">
         <v>11</v>
       </c>
-      <c r="BD59" s="87">
-        <v>14</v>
-      </c>
       <c r="BE59" s="84">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BF59" s="77" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="BG59" s="77" t="s">
         <v>55</v>
       </c>
       <c r="BH59" s="85">
-        <v>2.0833333333333332E-2</v>
+        <v>0.125</v>
       </c>
       <c r="BI59" s="85">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="BJ59" s="77" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="BK59" s="77" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="BL59" s="86" t="s">
         <v>53</v>
@@ -14144,10 +14109,10 @@
     </row>
     <row r="60" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B60" s="88" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C60" s="77" t="s">
         <v>116</v>
@@ -14213,110 +14178,110 @@
         <v>53</v>
       </c>
       <c r="X60" s="77">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y60" s="77">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z60" s="77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA60" s="77">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB60" s="77">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AC60" s="77">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="AD60" s="77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="77">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="AF60" s="77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG60" s="77">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH60" s="77">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI60" s="77">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AJ60" s="77">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AK60" s="77">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AL60" s="77">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM60" s="77">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AN60" s="77">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AO60" s="77">
+        <v>60</v>
+      </c>
+      <c r="AP60" s="77">
         <v>35</v>
       </c>
-      <c r="AP60" s="77">
-        <v>26</v>
-      </c>
       <c r="AQ60" s="77">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AR60" s="77">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AS60" s="15"/>
       <c r="AT60" s="77">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AU60" s="77">
         <v>3</v>
       </c>
       <c r="AV60" s="83">
         <f t="shared" si="15"/>
-        <v>38.596491228070171</v>
+        <v>1.1235955056179776</v>
       </c>
       <c r="AW60" s="77">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX60" s="77">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AY60" s="77">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="AZ60" s="77">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="BA60" s="84">
         <f t="shared" si="16"/>
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="BB60" s="77" t="s">
         <v>53</v>
       </c>
       <c r="BC60" s="87">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD60" s="87">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BE60" s="84">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BF60" s="77" t="s">
         <v>58</v>
@@ -14325,16 +14290,16 @@
         <v>55</v>
       </c>
       <c r="BH60" s="85">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="BI60" s="85">
         <v>0.39583333333333331</v>
       </c>
       <c r="BJ60" s="77" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="BK60" s="77" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="BL60" s="86" t="s">
         <v>53</v>
@@ -14351,7 +14316,7 @@
     </row>
     <row r="61" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B61" s="88" t="s">
         <v>166</v>
@@ -14360,7 +14325,7 @@
         <v>116</v>
       </c>
       <c r="D61" s="101">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E61" s="77" t="s">
         <v>71</v>
@@ -14420,107 +14385,107 @@
         <v>53</v>
       </c>
       <c r="X61" s="77">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Y61" s="77">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="Z61" s="77">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AA61" s="77">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB61" s="77">
         <f t="shared" si="10"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AC61" s="77">
         <f t="shared" si="11"/>
-        <v>0.92500000000000004</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="AD61" s="77">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AE61" s="77">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AF61" s="77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG61" s="77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH61" s="77">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AI61" s="77">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ61" s="77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK61" s="77">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AL61" s="77">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AM61" s="77">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN61" s="77">
         <v>34</v>
       </c>
       <c r="AO61" s="77">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP61" s="77">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AQ61" s="77">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AR61" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS61" s="15"/>
       <c r="AT61" s="77">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AU61" s="77">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AV61" s="83">
         <f t="shared" si="15"/>
-        <v>-10.638297872340425</v>
+        <v>43.859649122807014</v>
       </c>
       <c r="AW61" s="77">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AX61" s="77">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AY61" s="77">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AZ61" s="77">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="BA61" s="84">
         <f t="shared" si="16"/>
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="BB61" s="77" t="s">
         <v>53</v>
       </c>
       <c r="BC61" s="87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD61" s="87">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BE61" s="84">
         <v>18</v>
@@ -14532,7 +14497,7 @@
         <v>55</v>
       </c>
       <c r="BH61" s="85">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="BI61" s="85">
         <v>0.39583333333333331</v>
@@ -14541,7 +14506,7 @@
         <v>63</v>
       </c>
       <c r="BK61" s="77" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="BL61" s="86" t="s">
         <v>53</v>
@@ -14558,16 +14523,16 @@
     </row>
     <row r="62" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62" s="77" t="s">
         <v>116</v>
       </c>
       <c r="D62" s="101">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E62" s="77" t="s">
         <v>71</v>
@@ -14627,107 +14592,107 @@
         <v>53</v>
       </c>
       <c r="X62" s="77">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y62" s="77">
         <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Z62" s="77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA62" s="77">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB62" s="77">
         <f t="shared" si="10"/>
-        <v>0.32500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AC62" s="77">
         <f t="shared" si="11"/>
-        <v>0.67500000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AD62" s="77">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AE62" s="77">
         <f t="shared" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="AF62" s="77">
         <v>3</v>
       </c>
       <c r="AG62" s="77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH62" s="77">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AI62" s="77">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AJ62" s="77">
+        <v>18</v>
+      </c>
+      <c r="AK62" s="77">
         <v>29</v>
       </c>
-      <c r="AK62" s="77">
-        <v>24</v>
-      </c>
       <c r="AL62" s="77">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM62" s="77">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AN62" s="77">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AO62" s="77">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AP62" s="77">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ62" s="77">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AR62" s="77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS62" s="15"/>
       <c r="AT62" s="77">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AU62" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV62" s="83">
         <f t="shared" si="15"/>
-        <v>-21.666666666666668</v>
+        <v>38.596491228070171</v>
       </c>
       <c r="AW62" s="77">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="AX62" s="77">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY62" s="77">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ62" s="77">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BA62" s="84">
         <f t="shared" si="16"/>
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="BB62" s="77" t="s">
         <v>53</v>
       </c>
       <c r="BC62" s="87">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD62" s="87">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BE62" s="84">
         <v>18</v>
@@ -14739,13 +14704,13 @@
         <v>55</v>
       </c>
       <c r="BH62" s="85">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="BI62" s="85">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ62" s="77" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="BK62" s="77" t="s">
         <v>59</v>
@@ -14765,16 +14730,16 @@
     </row>
     <row r="63" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" s="89" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="B63" s="88" t="s">
+        <v>166</v>
       </c>
       <c r="C63" s="77" t="s">
         <v>116</v>
       </c>
       <c r="D63" s="101">
-        <v>0.41666666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E63" s="77" t="s">
         <v>71</v>
@@ -14834,7 +14799,7 @@
         <v>53</v>
       </c>
       <c r="X63" s="77">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Y63" s="77">
         <f t="shared" si="9"/>
@@ -14844,97 +14809,97 @@
         <v>15</v>
       </c>
       <c r="AA63" s="77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB63" s="77">
         <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC63" s="77">
         <f t="shared" si="11"/>
-        <v>0.85</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AD63" s="77">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE63" s="77">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="AF63" s="77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="77">
+        <v>3</v>
+      </c>
+      <c r="AH63" s="77">
+        <v>36</v>
+      </c>
+      <c r="AI63" s="77">
+        <v>30</v>
+      </c>
+      <c r="AJ63" s="77">
+        <v>29</v>
+      </c>
+      <c r="AK63" s="77">
+        <v>39</v>
+      </c>
+      <c r="AL63" s="77">
+        <v>40</v>
+      </c>
+      <c r="AM63" s="77">
+        <v>31</v>
+      </c>
+      <c r="AN63" s="77">
+        <v>34</v>
+      </c>
+      <c r="AO63" s="77">
+        <v>40</v>
+      </c>
+      <c r="AP63" s="77">
+        <v>46</v>
+      </c>
+      <c r="AQ63" s="77">
+        <v>48</v>
+      </c>
+      <c r="AR63" s="77">
         <v>4</v>
-      </c>
-      <c r="AH63" s="77">
-        <v>32</v>
-      </c>
-      <c r="AI63" s="77">
-        <v>26</v>
-      </c>
-      <c r="AJ63" s="77">
-        <v>45</v>
-      </c>
-      <c r="AK63" s="77">
-        <v>38</v>
-      </c>
-      <c r="AL63" s="77">
-        <v>62</v>
-      </c>
-      <c r="AM63" s="77">
-        <v>56</v>
-      </c>
-      <c r="AN63" s="77">
-        <v>67</v>
-      </c>
-      <c r="AO63" s="77">
-        <v>57</v>
-      </c>
-      <c r="AP63" s="77">
-        <v>99</v>
-      </c>
-      <c r="AQ63" s="77">
-        <v>110</v>
-      </c>
-      <c r="AR63" s="77">
-        <v>10</v>
       </c>
       <c r="AS63" s="15"/>
       <c r="AT63" s="77">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AU63" s="77">
         <v>5</v>
       </c>
       <c r="AV63" s="83">
         <f t="shared" si="15"/>
-        <v>-49.760765550239235</v>
+        <v>-10.638297872340425</v>
       </c>
       <c r="AW63" s="77">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AX63" s="77">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AY63" s="77">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="AZ63" s="77">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="BA63" s="84">
         <f t="shared" si="16"/>
-        <v>365</v>
+        <v>235</v>
       </c>
       <c r="BB63" s="77" t="s">
         <v>53</v>
       </c>
       <c r="BC63" s="87">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD63" s="87">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BE63" s="84">
         <v>18</v>
@@ -14946,16 +14911,16 @@
         <v>55</v>
       </c>
       <c r="BH63" s="85">
-        <v>0.95833333333333337</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BI63" s="85">
-        <v>0.25</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="BJ63" s="77" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="BK63" s="77" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="BL63" s="86" t="s">
         <v>53</v>
@@ -14970,52 +14935,511 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
-      <c r="AL64"/>
-      <c r="AM64"/>
-      <c r="AN64"/>
-      <c r="AO64"/>
-      <c r="AP64"/>
-      <c r="AV64" s="77"/>
-      <c r="AZ64" s="19"/>
-      <c r="BA64" s="84"/>
+    <row r="64" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="101">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E64" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="K64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="M64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="N64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="O64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="R64" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="S64" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T64" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="U64" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="V64" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="W64" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="X64" s="77">
+        <v>38</v>
+      </c>
+      <c r="Y64" s="77">
+        <f t="shared" si="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z64" s="77">
+        <v>11</v>
+      </c>
+      <c r="AA64" s="77">
+        <v>13</v>
+      </c>
+      <c r="AB64" s="77">
+        <f t="shared" si="10"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AC64" s="77">
+        <f t="shared" si="11"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AD64" s="77">
+        <v>-2</v>
+      </c>
+      <c r="AE64" s="77">
+        <f t="shared" si="12"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AF64" s="77">
+        <v>3</v>
+      </c>
+      <c r="AG64" s="77">
+        <v>10</v>
+      </c>
+      <c r="AH64" s="77">
+        <v>21</v>
+      </c>
+      <c r="AI64" s="77">
+        <v>27</v>
+      </c>
+      <c r="AJ64" s="77">
+        <v>29</v>
+      </c>
+      <c r="AK64" s="77">
+        <v>24</v>
+      </c>
+      <c r="AL64" s="77">
+        <v>23</v>
+      </c>
+      <c r="AM64" s="77">
+        <v>19</v>
+      </c>
+      <c r="AN64" s="77">
+        <v>20</v>
+      </c>
+      <c r="AO64" s="77">
+        <v>23</v>
+      </c>
+      <c r="AP64" s="77">
+        <v>28</v>
+      </c>
+      <c r="AQ64" s="77">
+        <v>32</v>
+      </c>
+      <c r="AR64" s="77">
+        <v>2.5</v>
+      </c>
+      <c r="AS64" s="15"/>
+      <c r="AT64" s="77">
+        <v>24</v>
+      </c>
+      <c r="AU64" s="77">
+        <v>2</v>
+      </c>
+      <c r="AV64" s="83">
+        <f t="shared" si="15"/>
+        <v>-21.666666666666668</v>
+      </c>
+      <c r="AW64" s="77">
+        <v>23</v>
+      </c>
+      <c r="AX64" s="77">
+        <v>21</v>
+      </c>
+      <c r="AY64" s="77">
+        <v>27</v>
+      </c>
+      <c r="AZ64" s="77">
+        <v>37</v>
+      </c>
+      <c r="BA64" s="84">
+        <f t="shared" si="16"/>
+        <v>132</v>
+      </c>
+      <c r="BB64" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC64" s="87">
+        <v>12</v>
+      </c>
+      <c r="BD64" s="87">
+        <v>14</v>
+      </c>
+      <c r="BE64" s="84">
+        <v>18</v>
+      </c>
+      <c r="BF64" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG64" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH64" s="85">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BI64" s="85">
+        <v>0.375</v>
+      </c>
+      <c r="BJ64" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK64" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL64" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM64" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN64" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO64" s="77" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="65" spans="34:53" x14ac:dyDescent="0.2">
-      <c r="AZ65" s="19"/>
-      <c r="BA65" s="52"/>
+    <row r="65" spans="1:67" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="101">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E65" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="M65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="N65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="O65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="R65" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="S65" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T65" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="U65" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="V65" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="W65" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="X65" s="77">
+        <v>49</v>
+      </c>
+      <c r="Y65" s="77">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z65" s="77">
+        <v>15</v>
+      </c>
+      <c r="AA65" s="77">
+        <v>6</v>
+      </c>
+      <c r="AB65" s="77">
+        <f t="shared" si="10"/>
+        <v>0.15</v>
+      </c>
+      <c r="AC65" s="77">
+        <f t="shared" si="11"/>
+        <v>0.85</v>
+      </c>
+      <c r="AD65" s="77">
+        <v>9</v>
+      </c>
+      <c r="AE65" s="77">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF65" s="77">
+        <v>2</v>
+      </c>
+      <c r="AG65" s="77">
+        <v>4</v>
+      </c>
+      <c r="AH65" s="77">
+        <v>32</v>
+      </c>
+      <c r="AI65" s="77">
+        <v>26</v>
+      </c>
+      <c r="AJ65" s="77">
+        <v>45</v>
+      </c>
+      <c r="AK65" s="77">
+        <v>38</v>
+      </c>
+      <c r="AL65" s="77">
+        <v>62</v>
+      </c>
+      <c r="AM65" s="77">
+        <v>56</v>
+      </c>
+      <c r="AN65" s="77">
+        <v>67</v>
+      </c>
+      <c r="AO65" s="77">
+        <v>57</v>
+      </c>
+      <c r="AP65" s="77">
+        <v>99</v>
+      </c>
+      <c r="AQ65" s="77">
+        <v>110</v>
+      </c>
+      <c r="AR65" s="77">
+        <v>10</v>
+      </c>
+      <c r="AS65" s="15"/>
+      <c r="AT65" s="77">
+        <v>58</v>
+      </c>
+      <c r="AU65" s="77">
+        <v>5</v>
+      </c>
+      <c r="AV65" s="83">
+        <f t="shared" si="15"/>
+        <v>-49.760765550239235</v>
+      </c>
+      <c r="AW65" s="77">
+        <v>47</v>
+      </c>
+      <c r="AX65" s="77">
+        <v>82</v>
+      </c>
+      <c r="AY65" s="77">
+        <v>84</v>
+      </c>
+      <c r="AZ65" s="77">
+        <v>94</v>
+      </c>
+      <c r="BA65" s="84">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="BB65" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC65" s="87">
+        <v>11</v>
+      </c>
+      <c r="BD65" s="87">
+        <v>15</v>
+      </c>
+      <c r="BE65" s="84">
+        <v>18</v>
+      </c>
+      <c r="BF65" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG65" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH65" s="85">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="BI65" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="BJ65" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK65" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL65" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM65" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN65" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO65" s="77" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="66" spans="34:53" x14ac:dyDescent="0.2">
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-      <c r="AM66"/>
-      <c r="AN66"/>
-      <c r="AO66"/>
-      <c r="AP66"/>
+    <row r="66" spans="1:67" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AQ66" s="19"/>
+      <c r="AR66" s="19"/>
+      <c r="AS66" s="19"/>
+      <c r="AT66" s="19"/>
+      <c r="AU66" s="19"/>
+      <c r="AV66" s="19"/>
+      <c r="AW66" s="19"/>
+      <c r="AX66" s="19"/>
+      <c r="AY66" s="19"/>
       <c r="AZ66" s="19"/>
       <c r="BA66" s="52"/>
+      <c r="BB66" s="19"/>
+      <c r="BC66" s="52"/>
+      <c r="BD66" s="52"/>
+      <c r="BE66" s="52"/>
+      <c r="BF66" s="19"/>
+      <c r="BG66" s="19"/>
+      <c r="BH66" s="19"/>
+      <c r="BI66" s="19"/>
+      <c r="BJ66" s="19"/>
+      <c r="BK66" s="19"/>
+      <c r="BL66" s="130"/>
+      <c r="BM66" s="19"/>
+      <c r="BN66" s="19"/>
     </row>
-    <row r="67" spans="34:53" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="AZ67" s="19"/>
       <c r="BA67" s="52"/>
     </row>
-    <row r="68" spans="34:53" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AP68"/>
       <c r="AZ68" s="19"/>
       <c r="BA68" s="52"/>
     </row>
-    <row r="69" spans="34:53" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="AZ69" s="19"/>
       <c r="BA69" s="52"/>
     </row>
-    <row r="70" spans="34:53" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="AZ70" s="19"/>
       <c r="BA70" s="52"/>
+    </row>
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="AZ71" s="19"/>
+      <c r="BA71" s="52"/>
+    </row>
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="AZ72" s="19"/>
+      <c r="BA72" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
